--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -451,17 +451,13 @@
         <v>14.76666666666664</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>14.79999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,1869 +521,1599 @@
         <v>14.8333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.86666666666663</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95105.17359999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.9333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20800</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.96666666666663</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20600</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.99999999999997</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>162800</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.99999999999997</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.96666666666663</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>135133.2078</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.9333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16737.091</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.89999999999996</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>101800</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.89999999999996</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16603.65</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.89999999999996</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34163.4526</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.86666666666663</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4297.12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14.86666666666663</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>79800</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14.86666666666663</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13844.9054</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14.86666666666664</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6357.9721</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.8333333333333</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>42000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C21" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>63000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3378</v>
+      </c>
+      <c r="G22" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3622</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.73333333333331</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>96020</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14.73333333333331</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7206</v>
+      </c>
+      <c r="G26" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>69467</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>70600</v>
+      </c>
+      <c r="G28" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>399870.022</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>815809.0134000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>117638.3783</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>37.6056</v>
+      </c>
+      <c r="G32" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20600</v>
+      </c>
+      <c r="G33" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>13854.4594</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>61780.6958</v>
+      </c>
+      <c r="G35" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>14.79999999999997</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>30895.3944</v>
+      </c>
+      <c r="G38" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6559.957</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14.73333333333331</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2710</v>
+      </c>
+      <c r="G40" t="n">
+        <v>14.73333333333331</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2270.321</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>16000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3841.8351</v>
+      </c>
+      <c r="G43" t="n">
+        <v>14.69999999999997</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>14.66666666666664</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.8351</v>
+      </c>
+      <c r="G45" t="n">
+        <v>14.66666666666664</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" t="n">
+        <v>14.73333333333331</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>53742</v>
+      </c>
+      <c r="G47" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>47634.18</v>
+      </c>
+      <c r="G49" t="n">
+        <v>14.76666666666664</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.86666666666663</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>15</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>95105.17359999999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.9333333333333</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20800</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.96666666666663</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15</v>
-      </c>
-      <c r="F8" t="n">
-        <v>20600</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.99999999999997</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>162800</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.99999999999997</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.96666666666663</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F11" t="n">
-        <v>135133.2078</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14.9333333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16737.091</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.89999999999996</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101800</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.89999999999996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16603.65</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14.89999999999996</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>34163.4526</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.86666666666663</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4297.12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>14.86666666666663</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F17" t="n">
-        <v>79800</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14.86666666666663</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13844.9054</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14.86666666666664</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6357.9721</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14.8333333333333</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E20" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F20" t="n">
-        <v>42000</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>63000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3378</v>
-      </c>
-      <c r="G22" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3622</v>
-      </c>
-      <c r="G23" t="n">
-        <v>14.73333333333331</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>96020</v>
-      </c>
-      <c r="G24" t="n">
-        <v>14.73333333333331</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>45400</v>
-      </c>
-      <c r="G25" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7206</v>
-      </c>
-      <c r="G26" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>69467</v>
-      </c>
-      <c r="G27" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>70600</v>
-      </c>
-      <c r="G28" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>399870.022</v>
-      </c>
-      <c r="G29" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F30" t="n">
-        <v>815809.0134000001</v>
-      </c>
-      <c r="G30" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>117638.3783</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>37.6056</v>
-      </c>
-      <c r="G32" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F33" t="n">
-        <v>20600</v>
-      </c>
-      <c r="G33" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F34" t="n">
-        <v>13854.4594</v>
-      </c>
-      <c r="G34" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>61780.6958</v>
-      </c>
-      <c r="G35" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G36" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>14.79999999999997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>30895.3944</v>
-      </c>
-      <c r="G38" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6559.957</v>
-      </c>
-      <c r="G39" t="n">
-        <v>14.73333333333331</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2710</v>
-      </c>
-      <c r="G40" t="n">
-        <v>14.73333333333331</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2270.321</v>
-      </c>
-      <c r="G41" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G42" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3841.8351</v>
-      </c>
-      <c r="G43" t="n">
-        <v>14.69999999999997</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G44" t="n">
-        <v>14.66666666666664</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.8351</v>
-      </c>
-      <c r="G45" t="n">
-        <v>14.66666666666664</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>100</v>
-      </c>
-      <c r="G46" t="n">
-        <v>14.73333333333331</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C47" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>53742</v>
-      </c>
-      <c r="G47" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>47634.18</v>
-      </c>
-      <c r="G49" t="n">
-        <v>14.76666666666664</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2423,12 +2141,14 @@
         <v>14.73333333333331</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K50" t="n">
         <v>14.8</v>
       </c>
@@ -2464,12 +2184,14 @@
         <v>14.73333333333331</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K51" t="n">
         <v>14.8</v>
       </c>
@@ -2505,12 +2227,14 @@
         <v>14.73333333333331</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K52" t="n">
         <v>14.8</v>
       </c>
@@ -2546,12 +2270,14 @@
         <v>14.76666666666664</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K53" t="n">
         <v>14.8</v>
       </c>
@@ -2587,12 +2313,14 @@
         <v>14.79999999999997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K54" t="n">
         <v>14.8</v>
       </c>
@@ -2628,12 +2356,14 @@
         <v>14.79999999999997</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K55" t="n">
         <v>14.8</v>
       </c>
@@ -2669,12 +2399,14 @@
         <v>14.83333333333331</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K56" t="n">
         <v>14.8</v>
       </c>
@@ -2710,12 +2442,14 @@
         <v>14.86666666666664</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K57" t="n">
         <v>14.8</v>
       </c>
@@ -3079,12 +2813,14 @@
         <v>14.7333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K66" t="n">
         <v>14.8</v>
       </c>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>14.8</v>
       </c>
       <c r="F2" t="n">
-        <v>48827.3729</v>
+        <v>19200</v>
       </c>
       <c r="G2" t="n">
-        <v>14.76666666666664</v>
+        <v>14.63833333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>14.8</v>
       </c>
       <c r="F3" t="n">
-        <v>24000</v>
+        <v>48827.3729</v>
       </c>
       <c r="G3" t="n">
-        <v>14.79999999999997</v>
+        <v>14.64666666666668</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>14.8</v>
       </c>
       <c r="C4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E4" t="n">
         <v>14.8</v>
       </c>
       <c r="F4" t="n">
-        <v>114125.3614</v>
+        <v>24000</v>
       </c>
       <c r="G4" t="n">
-        <v>14.8333333333333</v>
+        <v>14.65500000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C5" t="n">
         <v>14.9</v>
@@ -547,13 +547,13 @@
         <v>14.9</v>
       </c>
       <c r="E5" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>114125.3614</v>
       </c>
       <c r="G5" t="n">
-        <v>14.86666666666663</v>
+        <v>14.66333333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>14.9</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E6" t="n">
         <v>14.9</v>
       </c>
       <c r="F6" t="n">
-        <v>95105.17359999999</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>14.9333333333333</v>
+        <v>14.67166666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
@@ -617,13 +617,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F7" t="n">
-        <v>20800</v>
+        <v>95105.17359999999</v>
       </c>
       <c r="G7" t="n">
-        <v>14.96666666666663</v>
+        <v>14.68166666666668</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="G8" t="n">
-        <v>14.99999999999997</v>
+        <v>14.69000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>162800</v>
+        <v>20600</v>
       </c>
       <c r="G9" t="n">
-        <v>14.99999999999997</v>
+        <v>14.69833333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>1000</v>
+        <v>162800</v>
       </c>
       <c r="G10" t="n">
-        <v>14.96666666666663</v>
+        <v>14.70333333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>14.9</v>
       </c>
       <c r="F11" t="n">
-        <v>135133.2078</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>14.9333333333333</v>
+        <v>14.70833333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>14.9</v>
       </c>
       <c r="F12" t="n">
-        <v>16737.091</v>
+        <v>135133.2078</v>
       </c>
       <c r="G12" t="n">
-        <v>14.89999999999996</v>
+        <v>14.71333333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>14.9</v>
       </c>
       <c r="F13" t="n">
-        <v>101800</v>
+        <v>16737.091</v>
       </c>
       <c r="G13" t="n">
-        <v>14.89999999999996</v>
+        <v>14.71833333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>14.9</v>
       </c>
       <c r="F14" t="n">
-        <v>16603.65</v>
+        <v>101800</v>
       </c>
       <c r="G14" t="n">
-        <v>14.89999999999996</v>
+        <v>14.72166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F15" t="n">
-        <v>34163.4526</v>
+        <v>16603.65</v>
       </c>
       <c r="G15" t="n">
-        <v>14.86666666666663</v>
+        <v>14.72500000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F16" t="n">
-        <v>4297.12</v>
+        <v>34163.4526</v>
       </c>
       <c r="G16" t="n">
-        <v>14.86666666666663</v>
+        <v>14.72833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>14.9</v>
       </c>
       <c r="F17" t="n">
-        <v>79800</v>
+        <v>4297.12</v>
       </c>
       <c r="G17" t="n">
-        <v>14.86666666666663</v>
+        <v>14.73166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F18" t="n">
-        <v>13844.9054</v>
+        <v>79800</v>
       </c>
       <c r="G18" t="n">
-        <v>14.86666666666664</v>
+        <v>14.735</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>14.8</v>
       </c>
       <c r="F19" t="n">
-        <v>6357.9721</v>
+        <v>13844.9054</v>
       </c>
       <c r="G19" t="n">
-        <v>14.8333333333333</v>
+        <v>14.73666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C20" t="n">
         <v>14.8</v>
@@ -1072,13 +1072,13 @@
         <v>14.8</v>
       </c>
       <c r="E20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F20" t="n">
-        <v>42000</v>
+        <v>6357.9721</v>
       </c>
       <c r="G20" t="n">
-        <v>14.79999999999997</v>
+        <v>14.73833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>14.7</v>
       </c>
       <c r="F21" t="n">
-        <v>63000</v>
+        <v>42000</v>
       </c>
       <c r="G21" t="n">
-        <v>14.79999999999997</v>
+        <v>14.74</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>14.7</v>
       </c>
       <c r="C22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E22" t="n">
         <v>14.7</v>
       </c>
       <c r="F22" t="n">
-        <v>3378</v>
+        <v>63000</v>
       </c>
       <c r="G22" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>14.7</v>
       </c>
       <c r="F23" t="n">
-        <v>3622</v>
+        <v>3378</v>
       </c>
       <c r="G23" t="n">
-        <v>14.73333333333331</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>14.7</v>
       </c>
       <c r="C24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E24" t="n">
         <v>14.7</v>
       </c>
       <c r="F24" t="n">
-        <v>96020</v>
+        <v>3622</v>
       </c>
       <c r="G24" t="n">
-        <v>14.73333333333331</v>
+        <v>14.74166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C25" t="n">
         <v>14.8</v>
@@ -1247,13 +1247,13 @@
         <v>14.8</v>
       </c>
       <c r="E25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F25" t="n">
-        <v>45400</v>
+        <v>96020</v>
       </c>
       <c r="G25" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>14.8</v>
       </c>
       <c r="F26" t="n">
-        <v>7206</v>
+        <v>45400</v>
       </c>
       <c r="G26" t="n">
-        <v>14.79999999999997</v>
+        <v>14.745</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>14.8</v>
       </c>
       <c r="C27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D27" t="n">
         <v>14.8</v>
       </c>
       <c r="E27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F27" t="n">
-        <v>69467</v>
+        <v>7206</v>
       </c>
       <c r="G27" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74666666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>14.8</v>
       </c>
       <c r="C28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D28" t="n">
         <v>14.8</v>
       </c>
       <c r="E28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F28" t="n">
-        <v>70600</v>
+        <v>69467</v>
       </c>
       <c r="G28" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74666666666666</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>14.8</v>
       </c>
       <c r="F29" t="n">
-        <v>399870.022</v>
+        <v>70600</v>
       </c>
       <c r="G29" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>14.8</v>
       </c>
       <c r="F30" t="n">
-        <v>815809.0134000001</v>
+        <v>399870.022</v>
       </c>
       <c r="G30" t="n">
-        <v>14.79999999999997</v>
+        <v>14.74666666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>14.8</v>
       </c>
       <c r="F31" t="n">
-        <v>117638.3783</v>
+        <v>815809.0134000001</v>
       </c>
       <c r="G31" t="n">
-        <v>14.79999999999997</v>
+        <v>14.74666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C32" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D32" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E32" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F32" t="n">
-        <v>37.6056</v>
+        <v>117638.3783</v>
       </c>
       <c r="G32" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74833333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F33" t="n">
-        <v>20600</v>
+        <v>37.6056</v>
       </c>
       <c r="G33" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>14.8</v>
       </c>
       <c r="F34" t="n">
-        <v>13854.4594</v>
+        <v>20600</v>
       </c>
       <c r="G34" t="n">
-        <v>14.76666666666664</v>
+        <v>14.74999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>14.8</v>
       </c>
       <c r="F35" t="n">
-        <v>61780.6958</v>
+        <v>13854.4594</v>
       </c>
       <c r="G35" t="n">
-        <v>14.79999999999997</v>
+        <v>14.75333333333332</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>14.8</v>
       </c>
       <c r="F36" t="n">
-        <v>4200</v>
+        <v>61780.6958</v>
       </c>
       <c r="G36" t="n">
-        <v>14.79999999999997</v>
+        <v>14.75499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>14.8</v>
       </c>
       <c r="F37" t="n">
-        <v>9000</v>
+        <v>4200</v>
       </c>
       <c r="G37" t="n">
-        <v>14.79999999999997</v>
+        <v>14.75833333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C38" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D38" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E38" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F38" t="n">
-        <v>30895.3944</v>
+        <v>9000</v>
       </c>
       <c r="G38" t="n">
-        <v>14.76666666666664</v>
+        <v>14.76166666666665</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>14.7</v>
       </c>
       <c r="F39" t="n">
-        <v>6559.957</v>
+        <v>30895.3944</v>
       </c>
       <c r="G39" t="n">
-        <v>14.73333333333331</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C40" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D40" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E40" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F40" t="n">
-        <v>2710</v>
+        <v>6559.957</v>
       </c>
       <c r="G40" t="n">
-        <v>14.73333333333331</v>
+        <v>14.76499999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>14.8</v>
       </c>
       <c r="F41" t="n">
-        <v>2270.321</v>
+        <v>2710</v>
       </c>
       <c r="G41" t="n">
-        <v>14.76666666666664</v>
+        <v>14.76833333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C42" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D42" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E42" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F42" t="n">
-        <v>16000</v>
+        <v>2270.321</v>
       </c>
       <c r="G42" t="n">
-        <v>14.76666666666664</v>
+        <v>14.77333333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>14.7</v>
       </c>
       <c r="C43" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D43" t="n">
         <v>14.7</v>
       </c>
       <c r="E43" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F43" t="n">
-        <v>3841.8351</v>
+        <v>16000</v>
       </c>
       <c r="G43" t="n">
-        <v>14.69999999999997</v>
+        <v>14.77333333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>14.7</v>
       </c>
       <c r="C44" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D44" t="n">
         <v>14.7</v>
       </c>
       <c r="E44" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F44" t="n">
-        <v>2400</v>
+        <v>3841.8351</v>
       </c>
       <c r="G44" t="n">
-        <v>14.66666666666664</v>
+        <v>14.77166666666665</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>14.7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.8351</v>
+        <v>2400</v>
       </c>
       <c r="G45" t="n">
-        <v>14.66666666666664</v>
+        <v>14.77333333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C46" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D46" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E46" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>1.8351</v>
       </c>
       <c r="G46" t="n">
-        <v>14.73333333333331</v>
+        <v>14.77499999999998</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C47" t="n">
         <v>14.8</v>
       </c>
       <c r="D47" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E47" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F47" t="n">
-        <v>53742</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>14.76666666666664</v>
+        <v>14.77833333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,32 +2046,28 @@
         <v>14.7</v>
       </c>
       <c r="C48" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D48" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E48" t="n">
         <v>14.7</v>
       </c>
       <c r="F48" t="n">
-        <v>20000</v>
+        <v>53742</v>
       </c>
       <c r="G48" t="n">
-        <v>14.76666666666664</v>
+        <v>14.77999999999998</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
@@ -2085,19 +2081,19 @@
         <v>14.7</v>
       </c>
       <c r="C49" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D49" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E49" t="n">
         <v>14.7</v>
       </c>
       <c r="F49" t="n">
-        <v>47634.18</v>
+        <v>20000</v>
       </c>
       <c r="G49" t="n">
-        <v>14.76666666666664</v>
+        <v>14.77999999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2106,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2126,19 +2116,19 @@
         <v>14.7</v>
       </c>
       <c r="C50" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D50" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E50" t="n">
         <v>14.7</v>
       </c>
       <c r="F50" t="n">
-        <v>163</v>
+        <v>47634.18</v>
       </c>
       <c r="G50" t="n">
-        <v>14.73333333333331</v>
+        <v>14.78166666666665</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2147,14 +2137,12 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.8</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2178,23 +2166,19 @@
         <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>1640.8027</v>
+        <v>163</v>
       </c>
       <c r="G51" t="n">
-        <v>14.73333333333331</v>
+        <v>14.78166666666665</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,35 +2193,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C52" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D52" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E52" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F52" t="n">
-        <v>106797.0855</v>
+        <v>1640.8027</v>
       </c>
       <c r="G52" t="n">
-        <v>14.73333333333331</v>
+        <v>14.78333333333331</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2264,23 +2244,19 @@
         <v>14.8</v>
       </c>
       <c r="F53" t="n">
-        <v>51043.9786</v>
+        <v>106797.0855</v>
       </c>
       <c r="G53" t="n">
-        <v>14.76666666666664</v>
+        <v>14.78499999999998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K53" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2307,23 +2283,19 @@
         <v>14.8</v>
       </c>
       <c r="F54" t="n">
-        <v>100753.846</v>
+        <v>51043.9786</v>
       </c>
       <c r="G54" t="n">
-        <v>14.79999999999997</v>
+        <v>14.78999999999998</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K54" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,23 +2322,19 @@
         <v>14.8</v>
       </c>
       <c r="F55" t="n">
-        <v>128507.708</v>
+        <v>100753.846</v>
       </c>
       <c r="G55" t="n">
-        <v>14.79999999999997</v>
+        <v>14.79166666666664</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2381,35 +2349,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C56" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D56" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E56" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F56" t="n">
-        <v>202067.2269</v>
+        <v>128507.708</v>
       </c>
       <c r="G56" t="n">
-        <v>14.83333333333331</v>
+        <v>14.79333333333331</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K56" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2436,23 +2400,19 @@
         <v>14.9</v>
       </c>
       <c r="F57" t="n">
-        <v>353.1757</v>
+        <v>202067.2269</v>
       </c>
       <c r="G57" t="n">
-        <v>14.86666666666664</v>
+        <v>14.79666666666664</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K57" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2479,10 +2439,10 @@
         <v>14.9</v>
       </c>
       <c r="F58" t="n">
-        <v>6596.1744</v>
+        <v>353.1757</v>
       </c>
       <c r="G58" t="n">
-        <v>14.89999999999997</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2491,9 +2451,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,22 +2466,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C59" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D59" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E59" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F59" t="n">
-        <v>63000</v>
+        <v>6596.1744</v>
       </c>
       <c r="G59" t="n">
-        <v>14.8333333333333</v>
+        <v>14.80333333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2532,9 +2490,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,22 +2505,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C60" t="n">
         <v>14.7</v>
       </c>
       <c r="D60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E60" t="n">
         <v>14.7</v>
       </c>
       <c r="F60" t="n">
-        <v>12600</v>
+        <v>63000</v>
       </c>
       <c r="G60" t="n">
-        <v>14.76666666666664</v>
+        <v>14.80666666666664</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2573,9 +2529,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,22 +2544,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C61" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D61" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E61" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F61" t="n">
-        <v>3952.8398</v>
+        <v>12600</v>
       </c>
       <c r="G61" t="n">
-        <v>14.66666666666664</v>
+        <v>14.80666666666664</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2614,9 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2631,22 +2583,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C62" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D62" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E62" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F62" t="n">
-        <v>5400</v>
+        <v>3952.8398</v>
       </c>
       <c r="G62" t="n">
-        <v>14.66666666666663</v>
+        <v>14.80333333333331</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2655,9 +2607,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2684,10 +2634,10 @@
         <v>14.7</v>
       </c>
       <c r="F63" t="n">
-        <v>12600</v>
+        <v>5400</v>
       </c>
       <c r="G63" t="n">
-        <v>14.66666666666663</v>
+        <v>14.80166666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2696,9 +2646,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,22 +2661,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C64" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D64" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E64" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F64" t="n">
-        <v>3827.9515</v>
+        <v>12600</v>
       </c>
       <c r="G64" t="n">
-        <v>14.66666666666663</v>
+        <v>14.79999999999998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2737,9 +2685,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,22 +2700,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C65" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D65" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E65" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>3827.9515</v>
       </c>
       <c r="G65" t="n">
-        <v>14.66666666666663</v>
+        <v>14.79499999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2778,9 +2724,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2795,22 +2739,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C66" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D66" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E66" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F66" t="n">
-        <v>89000</v>
+        <v>100</v>
       </c>
       <c r="G66" t="n">
-        <v>14.7333333333333</v>
+        <v>14.79166666666665</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2819,11 +2763,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K66" t="n">
-        <v>14.8</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,33 +2780,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C67" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D67" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E67" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F67" t="n">
-        <v>2338.8318</v>
+        <v>89000</v>
       </c>
       <c r="G67" t="n">
-        <v>14.76666666666664</v>
+        <v>14.78999999999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J67" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2891,10 +2833,10 @@
         <v>14.7</v>
       </c>
       <c r="F68" t="n">
-        <v>56617.4518</v>
+        <v>2338.8318</v>
       </c>
       <c r="G68" t="n">
-        <v>14.76666666666663</v>
+        <v>14.78499999999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2903,9 +2845,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2932,10 +2872,10 @@
         <v>14.7</v>
       </c>
       <c r="F69" t="n">
-        <v>125292.8271</v>
+        <v>56617.4518</v>
       </c>
       <c r="G69" t="n">
-        <v>14.69999999999997</v>
+        <v>14.77999999999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2944,9 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,10 +2911,10 @@
         <v>14.7</v>
       </c>
       <c r="F70" t="n">
-        <v>13191529.7748</v>
+        <v>125292.8271</v>
       </c>
       <c r="G70" t="n">
-        <v>14.69999999999997</v>
+        <v>14.77499999999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2985,9 +2923,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3014,10 +2950,10 @@
         <v>14.7</v>
       </c>
       <c r="F71" t="n">
-        <v>9217158.624600001</v>
+        <v>13191529.7748</v>
       </c>
       <c r="G71" t="n">
-        <v>14.69999999999997</v>
+        <v>14.77166666666665</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3026,9 +2962,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,10 +2989,10 @@
         <v>14.7</v>
       </c>
       <c r="F72" t="n">
-        <v>2785.85</v>
+        <v>9217158.624600001</v>
       </c>
       <c r="G72" t="n">
-        <v>14.69999999999997</v>
+        <v>14.76833333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3067,9 +3001,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3084,22 +3016,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C73" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D73" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E73" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F73" t="n">
-        <v>9557.663200000001</v>
+        <v>2785.85</v>
       </c>
       <c r="G73" t="n">
-        <v>14.76666666666663</v>
+        <v>14.76499999999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3108,9 +3040,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,19 +3058,19 @@
         <v>14.8</v>
       </c>
       <c r="C74" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D74" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E74" t="n">
         <v>14.8</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>9557.663200000001</v>
       </c>
       <c r="G74" t="n">
-        <v>14.79999999999996</v>
+        <v>14.76499999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3149,9 +3079,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,10 +3106,10 @@
         <v>14.8</v>
       </c>
       <c r="F75" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>14.83333333333329</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3190,9 +3118,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,22 +3133,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C76" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D76" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E76" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F76" t="n">
-        <v>14600.95</v>
+        <v>79</v>
       </c>
       <c r="G76" t="n">
-        <v>14.83333333333329</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3231,9 +3157,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3260,10 +3184,10 @@
         <v>14.9</v>
       </c>
       <c r="F77" t="n">
-        <v>7110.9831</v>
+        <v>14600.95</v>
       </c>
       <c r="G77" t="n">
-        <v>14.86666666666663</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3272,9 +3196,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3292,19 +3214,19 @@
         <v>14.9</v>
       </c>
       <c r="C78" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D78" t="n">
         <v>14.9</v>
       </c>
       <c r="E78" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F78" t="n">
-        <v>2751</v>
+        <v>7110.9831</v>
       </c>
       <c r="G78" t="n">
-        <v>14.86666666666663</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3313,9 +3235,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,19 +3253,19 @@
         <v>14.9</v>
       </c>
       <c r="C79" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D79" t="n">
         <v>14.9</v>
       </c>
       <c r="E79" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F79" t="n">
-        <v>100425</v>
+        <v>2751</v>
       </c>
       <c r="G79" t="n">
-        <v>14.86666666666663</v>
+        <v>14.76333333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3354,9 +3274,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3374,19 +3292,19 @@
         <v>14.9</v>
       </c>
       <c r="C80" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E80" t="n">
         <v>14.9</v>
       </c>
       <c r="F80" t="n">
-        <v>3106.636</v>
+        <v>100425</v>
       </c>
       <c r="G80" t="n">
-        <v>14.89999999999996</v>
+        <v>14.76499999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3395,9 +3313,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3424,10 +3340,10 @@
         <v>14.9</v>
       </c>
       <c r="F81" t="n">
-        <v>69356.9427</v>
+        <v>3106.636</v>
       </c>
       <c r="G81" t="n">
-        <v>14.96666666666663</v>
+        <v>14.76833333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3436,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,22 +3367,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C82" t="n">
         <v>15</v>
       </c>
-      <c r="C82" t="n">
-        <v>15.1</v>
-      </c>
       <c r="D82" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F82" t="n">
-        <v>230295.2844</v>
+        <v>69356.9427</v>
       </c>
       <c r="G82" t="n">
-        <v>15.03333333333329</v>
+        <v>14.77166666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3477,9 +3391,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,7 +3406,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C83" t="n">
         <v>15.1</v>
@@ -3503,13 +3415,13 @@
         <v>15.1</v>
       </c>
       <c r="E83" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>3509.933774834437</v>
+        <v>230295.2844</v>
       </c>
       <c r="G83" t="n">
-        <v>15.06666666666663</v>
+        <v>14.77833333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3518,9 +3430,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,10 +3457,10 @@
         <v>15.1</v>
       </c>
       <c r="F84" t="n">
-        <v>273840.6413251656</v>
+        <v>3509.933774834437</v>
       </c>
       <c r="G84" t="n">
-        <v>15.09999999999996</v>
+        <v>14.78499999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3559,9 +3469,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,22 +3484,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C85" t="n">
         <v>15.1</v>
       </c>
       <c r="D85" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E85" t="n">
         <v>15.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1145530.5228</v>
+        <v>273840.6413251656</v>
       </c>
       <c r="G85" t="n">
-        <v>15.09999999999996</v>
+        <v>14.78999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3600,9 +3508,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,40 +3523,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C86" t="n">
         <v>15.1</v>
       </c>
       <c r="D86" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E86" t="n">
         <v>15.1</v>
       </c>
       <c r="F86" t="n">
-        <v>29070.7798</v>
+        <v>1145530.5228</v>
       </c>
       <c r="G86" t="n">
-        <v>15.09999999999996</v>
+        <v>14.79499999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1.01527027027027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3670,20 +3574,24 @@
         <v>15.1</v>
       </c>
       <c r="F87" t="n">
-        <v>57890.8933</v>
+        <v>29070.7798</v>
       </c>
       <c r="G87" t="n">
-        <v>15.09999999999996</v>
+        <v>14.79999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3693,32 +3601,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C88" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D88" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E88" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F88" t="n">
-        <v>2890.579</v>
+        <v>57890.8933</v>
       </c>
       <c r="G88" t="n">
-        <v>15.1333333333333</v>
+        <v>14.80666666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3731,19 +3643,19 @@
         <v>15.2</v>
       </c>
       <c r="C89" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D89" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E89" t="n">
         <v>15.2</v>
       </c>
       <c r="F89" t="n">
-        <v>1238542.766294771</v>
+        <v>2890.579</v>
       </c>
       <c r="G89" t="n">
-        <v>15.19999999999996</v>
+        <v>14.81333333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3753,7 +3665,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3766,39 +3682,41 @@
         <v>15.2</v>
       </c>
       <c r="C90" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D90" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E90" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F90" t="n">
-        <v>6157.07</v>
+        <v>1238542.766294771</v>
       </c>
       <c r="G90" t="n">
-        <v>15.29999999999996</v>
+        <v>14.82166666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C91" t="n">
         <v>15.4</v>
@@ -3807,19 +3725,19 @@
         <v>15.4</v>
       </c>
       <c r="E91" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F91" t="n">
-        <v>1960</v>
+        <v>6157.07</v>
       </c>
       <c r="G91" t="n">
-        <v>15.36666666666663</v>
+        <v>14.83166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3833,28 +3751,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C92" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="D92" t="n">
-        <v>15.1</v>
+        <v>15.4</v>
       </c>
       <c r="E92" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F92" t="n">
-        <v>31600</v>
+        <v>1960</v>
       </c>
       <c r="G92" t="n">
-        <v>15.29999999999996</v>
+        <v>14.84166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3880,10 +3798,10 @@
         <v>15.1</v>
       </c>
       <c r="F93" t="n">
-        <v>9698</v>
+        <v>31600</v>
       </c>
       <c r="G93" t="n">
-        <v>15.19999999999996</v>
+        <v>14.84833333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3915,10 +3833,10 @@
         <v>15.1</v>
       </c>
       <c r="F94" t="n">
-        <v>40159.0433</v>
+        <v>9698</v>
       </c>
       <c r="G94" t="n">
-        <v>15.09999999999996</v>
+        <v>14.85333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3950,10 +3868,10 @@
         <v>15.1</v>
       </c>
       <c r="F95" t="n">
-        <v>5268.38</v>
+        <v>40159.0433</v>
       </c>
       <c r="G95" t="n">
-        <v>15.09999999999996</v>
+        <v>14.85833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3973,22 +3891,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C96" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E96" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F96" t="n">
-        <v>121600</v>
+        <v>5268.38</v>
       </c>
       <c r="G96" t="n">
-        <v>15.06666666666663</v>
+        <v>14.86333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4020,10 +3938,10 @@
         <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>9109.6939</v>
+        <v>121600</v>
       </c>
       <c r="G97" t="n">
-        <v>15.03333333333329</v>
+        <v>14.86666666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4049,16 +3967,16 @@
         <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E98" t="n">
         <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>118250.9342</v>
+        <v>9109.6939</v>
       </c>
       <c r="G98" t="n">
-        <v>14.99999999999996</v>
+        <v>14.87</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4084,16 +4002,16 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E99" t="n">
         <v>15</v>
       </c>
       <c r="F99" t="n">
-        <v>169875</v>
+        <v>118250.9342</v>
       </c>
       <c r="G99" t="n">
-        <v>14.99999999999996</v>
+        <v>14.87499999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4113,22 +4031,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C100" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D100" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E100" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F100" t="n">
-        <v>3290</v>
+        <v>169875</v>
       </c>
       <c r="G100" t="n">
-        <v>15.06666666666663</v>
+        <v>14.87999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4148,22 +4066,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C101" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D101" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E101" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F101" t="n">
-        <v>1920.67</v>
+        <v>3290</v>
       </c>
       <c r="G101" t="n">
-        <v>15.06666666666663</v>
+        <v>14.88666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4186,19 +4104,19 @@
         <v>15.1</v>
       </c>
       <c r="C102" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
         <v>15.1</v>
       </c>
       <c r="E102" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>1920.6672</v>
+        <v>1920.67</v>
       </c>
       <c r="G102" t="n">
-        <v>15.09999999999996</v>
+        <v>14.89</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4230,10 +4148,10 @@
         <v>15.1</v>
       </c>
       <c r="F103" t="n">
-        <v>45211.6651</v>
+        <v>1920.6672</v>
       </c>
       <c r="G103" t="n">
-        <v>15.06666666666663</v>
+        <v>14.89666666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4256,19 +4174,19 @@
         <v>15.1</v>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D104" t="n">
         <v>15.1</v>
       </c>
       <c r="E104" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F104" t="n">
-        <v>8200</v>
+        <v>45211.6651</v>
       </c>
       <c r="G104" t="n">
-        <v>15.06666666666663</v>
+        <v>14.905</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4288,22 +4206,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C105" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D105" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E105" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>1812.4515</v>
+        <v>8200</v>
       </c>
       <c r="G105" t="n">
-        <v>15.09999999999996</v>
+        <v>14.90999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4335,10 +4253,10 @@
         <v>15.2</v>
       </c>
       <c r="F106" t="n">
-        <v>62154.9102</v>
+        <v>1812.4515</v>
       </c>
       <c r="G106" t="n">
-        <v>15.13333333333329</v>
+        <v>14.91833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4358,22 +4276,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D107" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F107" t="n">
-        <v>39200</v>
+        <v>62154.9102</v>
       </c>
       <c r="G107" t="n">
-        <v>15.13333333333329</v>
+        <v>14.925</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4396,19 +4314,19 @@
         <v>15.1</v>
       </c>
       <c r="C108" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
         <v>15.1</v>
       </c>
       <c r="E108" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>700</v>
+        <v>39200</v>
       </c>
       <c r="G108" t="n">
-        <v>15.09999999999996</v>
+        <v>14.92833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4440,10 +4358,10 @@
         <v>15.1</v>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G109" t="n">
-        <v>15.06666666666663</v>
+        <v>14.935</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4463,22 +4381,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C110" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D110" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E110" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F110" t="n">
-        <v>69.93000000000001</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>15.13333333333329</v>
+        <v>14.94</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4498,22 +4416,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D111" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E111" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F111" t="n">
-        <v>50000</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>15.13333333333329</v>
+        <v>14.94833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4545,10 +4463,10 @@
         <v>15.1</v>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="G112" t="n">
-        <v>15.13333333333329</v>
+        <v>14.955</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4568,22 +4486,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F113" t="n">
-        <v>20299.0537</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="n">
-        <v>15.13333333333329</v>
+        <v>14.96</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4603,22 +4521,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F114" t="n">
-        <v>99800</v>
+        <v>20299.0537</v>
       </c>
       <c r="G114" t="n">
-        <v>15.19999999999996</v>
+        <v>14.96666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4638,22 +4556,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>99800</v>
       </c>
       <c r="G115" t="n">
-        <v>15.19999999999996</v>
+        <v>14.975</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4673,22 +4591,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C116" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D116" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E116" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F116" t="n">
-        <v>6778.657</v>
+        <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>15.23333333333329</v>
+        <v>14.98</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4708,22 +4626,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C117" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D117" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E117" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F117" t="n">
-        <v>37000</v>
+        <v>6778.657</v>
       </c>
       <c r="G117" t="n">
-        <v>15.19999999999996</v>
+        <v>14.98666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4743,22 +4661,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C118" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D118" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E118" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F118" t="n">
-        <v>2259.5523</v>
+        <v>37000</v>
       </c>
       <c r="G118" t="n">
-        <v>15.26666666666662</v>
+        <v>14.99166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4778,22 +4696,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C119" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D119" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E119" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F119" t="n">
-        <v>66200</v>
+        <v>2259.5523</v>
       </c>
       <c r="G119" t="n">
-        <v>15.23333333333329</v>
+        <v>14.99833333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4825,10 +4743,10 @@
         <v>15.2</v>
       </c>
       <c r="F120" t="n">
-        <v>24993.49</v>
+        <v>66200</v>
       </c>
       <c r="G120" t="n">
-        <v>15.23333333333329</v>
+        <v>15.00666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4860,10 +4778,10 @@
         <v>15.2</v>
       </c>
       <c r="F121" t="n">
-        <v>16559.2865</v>
+        <v>24993.49</v>
       </c>
       <c r="G121" t="n">
-        <v>15.19999999999996</v>
+        <v>15.015</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4895,10 +4813,10 @@
         <v>15.2</v>
       </c>
       <c r="F122" t="n">
-        <v>59842.2491</v>
+        <v>16559.2865</v>
       </c>
       <c r="G122" t="n">
-        <v>15.19999999999996</v>
+        <v>15.025</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4921,19 +4839,19 @@
         <v>15.2</v>
       </c>
       <c r="C123" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D123" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E123" t="n">
         <v>15.2</v>
       </c>
       <c r="F123" t="n">
-        <v>161239.2468</v>
+        <v>59842.2491</v>
       </c>
       <c r="G123" t="n">
-        <v>15.26666666666663</v>
+        <v>15.03333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4948,6 +4866,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>161239.2468</v>
+      </c>
+      <c r="G124" t="n">
+        <v>15.045</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>19200</v>
       </c>
       <c r="G2" t="n">
+        <v>14.67333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>14.63833333333335</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>48827.3729</v>
       </c>
       <c r="G3" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H3" t="n">
         <v>14.64666666666668</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>24000</v>
       </c>
       <c r="G4" t="n">
+        <v>14.68666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>14.65500000000001</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>114125.3614</v>
       </c>
       <c r="G5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H5" t="n">
         <v>14.66333333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10000</v>
       </c>
       <c r="G6" t="n">
+        <v>14.71333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>14.67166666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>95105.17359999999</v>
       </c>
       <c r="G7" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H7" t="n">
         <v>14.68166666666668</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>20800</v>
       </c>
       <c r="G8" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H8" t="n">
         <v>14.69000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>20600</v>
       </c>
       <c r="G9" t="n">
+        <v>14.79333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>14.69833333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>162800</v>
       </c>
       <c r="G10" t="n">
+        <v>14.81333333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>14.70333333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
+        <v>14.82666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>14.70833333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>135133.2078</v>
       </c>
       <c r="G12" t="n">
+        <v>14.84000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>14.71333333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>16737.091</v>
       </c>
       <c r="G13" t="n">
+        <v>14.85333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>14.71833333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>101800</v>
       </c>
       <c r="G14" t="n">
+        <v>14.86666666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>14.72166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>16603.65</v>
       </c>
       <c r="G15" t="n">
+        <v>14.89333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>14.72500000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>34163.4526</v>
       </c>
       <c r="G16" t="n">
+        <v>14.90000000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>14.72833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>4297.12</v>
       </c>
       <c r="G17" t="n">
+        <v>14.90666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>14.73166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>79800</v>
       </c>
       <c r="G18" t="n">
+        <v>14.91333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>14.735</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>13844.9054</v>
       </c>
       <c r="G19" t="n">
+        <v>14.91333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>14.73666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>6357.9721</v>
       </c>
       <c r="G20" t="n">
+        <v>14.90666666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>14.73833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>42000</v>
       </c>
       <c r="G21" t="n">
+        <v>14.90000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>14.74</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>63000</v>
       </c>
       <c r="G22" t="n">
+        <v>14.88666666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>14.74166666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>3378</v>
       </c>
       <c r="G23" t="n">
+        <v>14.86666666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>14.74166666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,25 @@
         <v>3622</v>
       </c>
       <c r="G24" t="n">
+        <v>14.84666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>14.74166666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1331,27 @@
         <v>96020</v>
       </c>
       <c r="G25" t="n">
+        <v>14.83333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>14.74333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1375,27 @@
         <v>45400</v>
       </c>
       <c r="G26" t="n">
+        <v>14.82666666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>14.745</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1419,27 @@
         <v>7206</v>
       </c>
       <c r="G27" t="n">
+        <v>14.82000000000001</v>
+      </c>
+      <c r="H27" t="n">
         <v>14.74666666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1463,27 @@
         <v>69467</v>
       </c>
       <c r="G28" t="n">
+        <v>14.80666666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>14.74666666666666</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1507,27 @@
         <v>70600</v>
       </c>
       <c r="G29" t="n">
+        <v>14.80000000000001</v>
+      </c>
+      <c r="H29" t="n">
         <v>14.74666666666666</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1551,27 @@
         <v>399870.022</v>
       </c>
       <c r="G30" t="n">
+        <v>14.79333333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>14.74666666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1595,27 @@
         <v>815809.0134000001</v>
       </c>
       <c r="G31" t="n">
+        <v>14.79333333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>14.74666666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1639,27 @@
         <v>117638.3783</v>
       </c>
       <c r="G32" t="n">
+        <v>14.78666666666668</v>
+      </c>
+      <c r="H32" t="n">
         <v>14.74833333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1683,27 @@
         <v>37.6056</v>
       </c>
       <c r="G33" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>14.74833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1727,27 @@
         <v>20600</v>
       </c>
       <c r="G34" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>14.74999999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1771,27 @@
         <v>13854.4594</v>
       </c>
       <c r="G35" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>14.75333333333332</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1815,27 @@
         <v>61780.6958</v>
       </c>
       <c r="G36" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>14.75499999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1859,27 @@
         <v>4200</v>
       </c>
       <c r="G37" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H37" t="n">
         <v>14.75833333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1903,27 @@
         <v>9000</v>
       </c>
       <c r="G38" t="n">
+        <v>14.78000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>14.76166666666665</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1947,27 @@
         <v>30895.3944</v>
       </c>
       <c r="G39" t="n">
+        <v>14.78000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1991,29 @@
         <v>6559.957</v>
       </c>
       <c r="G40" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>14.76499999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2037,29 @@
         <v>2710</v>
       </c>
       <c r="G41" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>14.76833333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2083,29 @@
         <v>2270.321</v>
       </c>
       <c r="G42" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>14.77333333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2129,27 @@
         <v>16000</v>
       </c>
       <c r="G43" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H43" t="n">
         <v>14.77333333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2173,29 @@
         <v>3841.8351</v>
       </c>
       <c r="G44" t="n">
+        <v>14.76000000000001</v>
+      </c>
+      <c r="H44" t="n">
         <v>14.77166666666665</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2219,29 @@
         <v>2400</v>
       </c>
       <c r="G45" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>14.77333333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2265,29 @@
         <v>1.8351</v>
       </c>
       <c r="G46" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>14.77499999999998</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L46" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2311,29 @@
         <v>100</v>
       </c>
       <c r="G47" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>14.77833333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2357,29 @@
         <v>53742</v>
       </c>
       <c r="G48" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>14.77999999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2403,27 @@
         <v>20000</v>
       </c>
       <c r="G49" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>14.77999999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,24 +2447,27 @@
         <v>47634.18</v>
       </c>
       <c r="G50" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>14.78166666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,22 +2491,27 @@
         <v>163</v>
       </c>
       <c r="G51" t="n">
+        <v>14.74000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>14.78166666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,22 +2535,29 @@
         <v>1640.8027</v>
       </c>
       <c r="G52" t="n">
+        <v>14.73333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>14.78333333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2247,22 +2581,29 @@
         <v>106797.0855</v>
       </c>
       <c r="G53" t="n">
+        <v>14.73333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>14.78499999999998</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,22 +2627,29 @@
         <v>51043.9786</v>
       </c>
       <c r="G54" t="n">
+        <v>14.74000000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>14.78999999999998</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2325,22 +2673,27 @@
         <v>100753.846</v>
       </c>
       <c r="G55" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>14.79166666666664</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,22 +2717,27 @@
         <v>128507.708</v>
       </c>
       <c r="G56" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>14.79333333333331</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2403,22 +2761,27 @@
         <v>202067.2269</v>
       </c>
       <c r="G57" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>14.79666666666664</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,22 +2805,27 @@
         <v>353.1757</v>
       </c>
       <c r="G58" t="n">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>14.79999999999997</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,22 +2849,27 @@
         <v>6596.1744</v>
       </c>
       <c r="G59" t="n">
+        <v>14.78666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>14.80333333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2520,22 +2893,27 @@
         <v>63000</v>
       </c>
       <c r="G60" t="n">
+        <v>14.78666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>14.80666666666664</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2559,22 +2937,27 @@
         <v>12600</v>
       </c>
       <c r="G61" t="n">
+        <v>14.78666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>14.80666666666664</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,22 +2981,27 @@
         <v>3952.8398</v>
       </c>
       <c r="G62" t="n">
+        <v>14.77333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>14.80333333333331</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,22 +3025,27 @@
         <v>5400</v>
       </c>
       <c r="G63" t="n">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>14.80166666666664</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,22 +3069,29 @@
         <v>12600</v>
       </c>
       <c r="G64" t="n">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>14.79999999999998</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2715,22 +3115,29 @@
         <v>3827.9515</v>
       </c>
       <c r="G65" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>14.79499999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,24 +3161,29 @@
         <v>100</v>
       </c>
       <c r="G66" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>14.79166666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
         <v>14.6</v>
       </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,24 +3207,29 @@
         <v>89000</v>
       </c>
       <c r="G67" t="n">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>14.78999999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2836,22 +3253,27 @@
         <v>2338.8318</v>
       </c>
       <c r="G68" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H68" t="n">
         <v>14.78499999999998</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,22 +3297,27 @@
         <v>56617.4518</v>
       </c>
       <c r="G69" t="n">
+        <v>14.75333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>14.77999999999998</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,22 +3341,27 @@
         <v>125292.8271</v>
       </c>
       <c r="G70" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>14.77499999999998</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,22 +3385,27 @@
         <v>13191529.7748</v>
       </c>
       <c r="G71" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H71" t="n">
         <v>14.77166666666665</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,22 +3429,27 @@
         <v>9217158.624600001</v>
       </c>
       <c r="G72" t="n">
+        <v>14.72666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>14.76833333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3031,22 +3473,27 @@
         <v>2785.85</v>
       </c>
       <c r="G73" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>14.76499999999998</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3070,22 +3517,27 @@
         <v>9557.663200000001</v>
       </c>
       <c r="G74" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>14.76499999999998</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,22 +3561,27 @@
         <v>21</v>
       </c>
       <c r="G75" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H75" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3148,22 +3605,27 @@
         <v>79</v>
       </c>
       <c r="G76" t="n">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3187,22 +3649,27 @@
         <v>14600.95</v>
       </c>
       <c r="G77" t="n">
+        <v>14.74666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,22 +3693,27 @@
         <v>7110.9831</v>
       </c>
       <c r="G78" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H78" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,22 +3737,27 @@
         <v>2751</v>
       </c>
       <c r="G79" t="n">
+        <v>14.76666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>14.76333333333332</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,22 +3781,27 @@
         <v>100425</v>
       </c>
       <c r="G80" t="n">
+        <v>14.78666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>14.76499999999998</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3343,22 +3825,27 @@
         <v>3106.636</v>
       </c>
       <c r="G81" t="n">
+        <v>14.80666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>14.76833333333332</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,22 +3869,27 @@
         <v>69356.9427</v>
       </c>
       <c r="G82" t="n">
+        <v>14.81333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>14.77166666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3421,22 +3913,27 @@
         <v>230295.2844</v>
       </c>
       <c r="G83" t="n">
+        <v>14.84000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>14.77833333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,22 +3957,27 @@
         <v>3509.933774834437</v>
       </c>
       <c r="G84" t="n">
+        <v>14.86666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>14.78499999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3499,22 +4001,27 @@
         <v>273840.6413251656</v>
       </c>
       <c r="G85" t="n">
+        <v>14.89333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>14.78999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,22 +4045,27 @@
         <v>1145530.5228</v>
       </c>
       <c r="G86" t="n">
+        <v>14.92000000000001</v>
+      </c>
+      <c r="H86" t="n">
         <v>14.79499999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3577,22 +4089,27 @@
         <v>29070.7798</v>
       </c>
       <c r="G87" t="n">
+        <v>14.94666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>14.79999999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,22 +4133,27 @@
         <v>57890.8933</v>
       </c>
       <c r="G88" t="n">
+        <v>14.97333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>14.80666666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3655,22 +4177,27 @@
         <v>2890.579</v>
       </c>
       <c r="G89" t="n">
+        <v>14.99333333333334</v>
+      </c>
+      <c r="H89" t="n">
         <v>14.81333333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,22 +4221,29 @@
         <v>1238542.766294771</v>
       </c>
       <c r="G90" t="n">
+        <v>15.02666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>14.82166666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3731,18 +4265,27 @@
         <v>6157.07</v>
       </c>
       <c r="G91" t="n">
+        <v>15.06666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>14.83166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,19 +4309,28 @@
         <v>1960</v>
       </c>
       <c r="G92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H92" t="n">
         <v>14.84166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
+      <c r="L92" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1.042619047619048</v>
       </c>
     </row>
     <row r="93">
@@ -3801,18 +4353,21 @@
         <v>31600</v>
       </c>
       <c r="G93" t="n">
+        <v>15.11333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>14.84833333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,18 +4391,21 @@
         <v>9698</v>
       </c>
       <c r="G94" t="n">
+        <v>15.13333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>14.85333333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,18 +4429,21 @@
         <v>40159.0433</v>
       </c>
       <c r="G95" t="n">
+        <v>15.14666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>14.85833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3906,18 +4467,21 @@
         <v>5268.38</v>
       </c>
       <c r="G96" t="n">
+        <v>15.15333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>14.86333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,18 +4505,21 @@
         <v>121600</v>
       </c>
       <c r="G97" t="n">
+        <v>15.15333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>14.86666666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,18 +4543,21 @@
         <v>9109.6939</v>
       </c>
       <c r="G98" t="n">
+        <v>15.14666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>14.87</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,18 +4581,21 @@
         <v>118250.9342</v>
       </c>
       <c r="G99" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H99" t="n">
         <v>14.87499999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,18 +4619,21 @@
         <v>169875</v>
       </c>
       <c r="G100" t="n">
+        <v>15.13333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>14.87999999999999</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,18 +4657,21 @@
         <v>3290</v>
       </c>
       <c r="G101" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H101" t="n">
         <v>14.88666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,18 +4695,21 @@
         <v>1920.67</v>
       </c>
       <c r="G102" t="n">
+        <v>15.13333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>14.89</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,18 +4733,21 @@
         <v>1920.6672</v>
       </c>
       <c r="G103" t="n">
+        <v>15.13333333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>14.89666666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,18 +4771,21 @@
         <v>45211.6651</v>
       </c>
       <c r="G104" t="n">
+        <v>15.12666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>14.905</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4221,18 +4809,21 @@
         <v>8200</v>
       </c>
       <c r="G105" t="n">
+        <v>15.10666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>14.90999999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,18 +4847,21 @@
         <v>1812.4515</v>
       </c>
       <c r="G106" t="n">
+        <v>15.09333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>14.91833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4291,18 +4885,21 @@
         <v>62154.9102</v>
       </c>
       <c r="G107" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="H107" t="n">
         <v>14.925</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,18 +4923,21 @@
         <v>39200</v>
       </c>
       <c r="G108" t="n">
+        <v>15.07333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>14.92833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,18 +4961,21 @@
         <v>700</v>
       </c>
       <c r="G109" t="n">
+        <v>15.07333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>14.935</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4396,18 +4999,21 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
+        <v>15.07333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>14.94</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4431,18 +5037,21 @@
         <v>69.93000000000001</v>
       </c>
       <c r="G111" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="H111" t="n">
         <v>14.94833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,18 +5075,21 @@
         <v>50000</v>
       </c>
       <c r="G112" t="n">
+        <v>15.08666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>14.955</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4501,18 +5113,21 @@
         <v>1000</v>
       </c>
       <c r="G113" t="n">
+        <v>15.09333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>14.96</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,18 +5151,21 @@
         <v>20299.0537</v>
       </c>
       <c r="G114" t="n">
+        <v>15.10666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>14.96666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4571,18 +5189,21 @@
         <v>99800</v>
       </c>
       <c r="G115" t="n">
+        <v>15.12666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>14.975</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,18 +5227,21 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H116" t="n">
         <v>14.98</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4641,18 +5265,21 @@
         <v>6778.657</v>
       </c>
       <c r="G117" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="H117" t="n">
         <v>14.98666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,18 +5303,21 @@
         <v>37000</v>
       </c>
       <c r="G118" t="n">
+        <v>15.14666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>14.99166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,18 +5341,21 @@
         <v>2259.5523</v>
       </c>
       <c r="G119" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="H119" t="n">
         <v>14.99833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4746,18 +5379,21 @@
         <v>66200</v>
       </c>
       <c r="G120" t="n">
+        <v>15.17333333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>15.00666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,18 +5417,21 @@
         <v>24993.49</v>
       </c>
       <c r="G121" t="n">
+        <v>15.17333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>15.015</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4816,18 +5455,21 @@
         <v>16559.2865</v>
       </c>
       <c r="G122" t="n">
+        <v>15.17333333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>15.025</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4851,18 +5493,21 @@
         <v>59842.2491</v>
       </c>
       <c r="G123" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>15.03333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,18 +5531,401 @@
         <v>161239.2468</v>
       </c>
       <c r="G124" t="n">
+        <v>15.20666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>15.045</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15.21333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>15.055</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>15.21333333333333</v>
+      </c>
+      <c r="H126" t="n">
+        <v>15.06333333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>99959.1393</v>
+      </c>
+      <c r="G127" t="n">
+        <v>15.21333333333333</v>
+      </c>
+      <c r="H127" t="n">
+        <v>15.06666666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>31750</v>
+      </c>
+      <c r="G128" t="n">
+        <v>15.22666666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>15.07666666666667</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>36398.0169</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="H129" t="n">
+        <v>15.08333333333333</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>59600</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15.20666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>43854.0622</v>
+      </c>
+      <c r="G131" t="n">
+        <v>15.20666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>15.09666666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15.19333333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>15.10333333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G133" t="n">
+        <v>15.18666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F134" t="n">
+        <v>128.2781</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15.17333333333333</v>
+      </c>
+      <c r="H134" t="n">
+        <v>15.11333333333333</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E2" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F2" t="n">
-        <v>19200</v>
+        <v>9975</v>
       </c>
       <c r="G2" t="n">
-        <v>14.67333333333333</v>
+        <v>250319.6605295775</v>
       </c>
       <c r="H2" t="n">
-        <v>14.63833333333335</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E3" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F3" t="n">
-        <v>48827.3729</v>
+        <v>24000</v>
       </c>
       <c r="G3" t="n">
-        <v>14.68</v>
+        <v>250319.6605295775</v>
       </c>
       <c r="H3" t="n">
-        <v>14.64666666666668</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C4" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E4" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F4" t="n">
-        <v>24000</v>
+        <v>69189.3737</v>
       </c>
       <c r="G4" t="n">
-        <v>14.68666666666667</v>
+        <v>181130.2868295775</v>
       </c>
       <c r="H4" t="n">
-        <v>14.65500000000001</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E5" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F5" t="n">
-        <v>114125.3614</v>
+        <v>47690.2703</v>
       </c>
       <c r="G5" t="n">
-        <v>14.7</v>
+        <v>228820.5571295775</v>
       </c>
       <c r="H5" t="n">
-        <v>14.66333333333335</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E6" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="G6" t="n">
-        <v>14.71333333333334</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H6" t="n">
-        <v>14.67166666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E7" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F7" t="n">
-        <v>95105.17359999999</v>
+        <v>4211.2904</v>
       </c>
       <c r="G7" t="n">
-        <v>14.74</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H7" t="n">
-        <v>14.68166666666668</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F8" t="n">
-        <v>20800</v>
+        <v>5953.6523</v>
       </c>
       <c r="G8" t="n">
-        <v>14.76</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H8" t="n">
-        <v>14.69000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F9" t="n">
-        <v>20600</v>
+        <v>1040.1304</v>
       </c>
       <c r="G9" t="n">
-        <v>14.79333333333334</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H9" t="n">
-        <v>14.69833333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="F10" t="n">
-        <v>162800</v>
+        <v>1652.8751</v>
       </c>
       <c r="G10" t="n">
-        <v>14.81333333333334</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H10" t="n">
-        <v>14.70333333333335</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +752,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="D11" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="E11" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="G11" t="n">
-        <v>14.82666666666667</v>
+        <v>203940.5571295775</v>
       </c>
       <c r="H11" t="n">
-        <v>14.70833333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +793,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C12" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D12" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E12" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F12" t="n">
-        <v>135133.2078</v>
+        <v>77996.7684</v>
       </c>
       <c r="G12" t="n">
-        <v>14.84000000000001</v>
+        <v>281937.3255295776</v>
       </c>
       <c r="H12" t="n">
-        <v>14.71333333333334</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +836,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C13" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E13" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F13" t="n">
-        <v>16737.091</v>
+        <v>5769.23</v>
       </c>
       <c r="G13" t="n">
-        <v>14.85333333333334</v>
+        <v>281937.3255295776</v>
       </c>
       <c r="H13" t="n">
-        <v>14.71833333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +877,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F14" t="n">
-        <v>101800</v>
+        <v>2307.692</v>
       </c>
       <c r="G14" t="n">
-        <v>14.86666666666668</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H14" t="n">
-        <v>14.72166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +918,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E15" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F15" t="n">
-        <v>16603.65</v>
+        <v>1787.6796</v>
       </c>
       <c r="G15" t="n">
-        <v>14.89333333333334</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H15" t="n">
-        <v>14.72500000000001</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +959,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D16" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E16" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F16" t="n">
-        <v>34163.4526</v>
+        <v>24851.7788</v>
       </c>
       <c r="G16" t="n">
-        <v>14.90000000000001</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H16" t="n">
-        <v>14.72833333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1000,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C17" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D17" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E17" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F17" t="n">
-        <v>4297.12</v>
+        <v>12800</v>
       </c>
       <c r="G17" t="n">
-        <v>14.90666666666668</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H17" t="n">
-        <v>14.73166666666667</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1043,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C18" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D18" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E18" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F18" t="n">
-        <v>79800</v>
+        <v>15653.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>14.91333333333334</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H18" t="n">
-        <v>14.735</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1086,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F19" t="n">
-        <v>13844.9054</v>
+        <v>20000</v>
       </c>
       <c r="G19" t="n">
-        <v>14.91333333333334</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H19" t="n">
-        <v>14.73666666666667</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1129,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E20" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F20" t="n">
-        <v>6357.9721</v>
+        <v>14063.6125</v>
       </c>
       <c r="G20" t="n">
-        <v>14.90666666666668</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H20" t="n">
-        <v>14.73833333333334</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1172,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C21" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D21" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E21" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F21" t="n">
-        <v>42000</v>
+        <v>3000</v>
       </c>
       <c r="G21" t="n">
-        <v>14.90000000000001</v>
+        <v>289429.6335295776</v>
       </c>
       <c r="H21" t="n">
-        <v>14.74</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,33 +1218,38 @@
         <v>14.7</v>
       </c>
       <c r="C22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E22" t="n">
         <v>14.7</v>
       </c>
       <c r="F22" t="n">
-        <v>63000</v>
+        <v>1409.4062</v>
       </c>
       <c r="G22" t="n">
-        <v>14.88666666666668</v>
+        <v>290839.0397295776</v>
       </c>
       <c r="H22" t="n">
-        <v>14.74166666666667</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1258,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C23" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D23" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E23" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3378</v>
+        <v>2788.97</v>
       </c>
       <c r="G23" t="n">
-        <v>14.86666666666668</v>
+        <v>288050.0697295776</v>
       </c>
       <c r="H23" t="n">
-        <v>14.74166666666667</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,28 +1313,29 @@
         <v>14.7</v>
       </c>
       <c r="F24" t="n">
-        <v>3622</v>
+        <v>8600</v>
       </c>
       <c r="G24" t="n">
-        <v>14.84666666666668</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H24" t="n">
-        <v>14.74166666666667</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="K24" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1319,39 +1347,38 @@
         <v>14.7</v>
       </c>
       <c r="C25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E25" t="n">
         <v>14.7</v>
       </c>
       <c r="F25" t="n">
-        <v>96020</v>
+        <v>64960</v>
       </c>
       <c r="G25" t="n">
-        <v>14.83333333333334</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H25" t="n">
-        <v>14.74333333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,42 +1387,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C26" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D26" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F26" t="n">
-        <v>45400</v>
+        <v>47120.5985</v>
       </c>
       <c r="G26" t="n">
-        <v>14.82666666666668</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H26" t="n">
-        <v>14.745</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,42 +1430,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E27" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F27" t="n">
-        <v>7206</v>
+        <v>11609.2957</v>
       </c>
       <c r="G27" t="n">
-        <v>14.82000000000001</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H27" t="n">
-        <v>14.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,42 +1473,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C28" t="n">
         <v>14.7</v>
       </c>
       <c r="D28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E28" t="n">
         <v>14.7</v>
       </c>
       <c r="F28" t="n">
-        <v>69467</v>
+        <v>11956.178</v>
       </c>
       <c r="G28" t="n">
-        <v>14.80666666666668</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H28" t="n">
-        <v>14.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,42 +1516,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C29" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D29" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E29" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F29" t="n">
-        <v>70600</v>
+        <v>6575.3424</v>
       </c>
       <c r="G29" t="n">
-        <v>14.80000000000001</v>
+        <v>290074.7273295776</v>
       </c>
       <c r="H29" t="n">
-        <v>14.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1536,42 +1559,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E30" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F30" t="n">
-        <v>399870.022</v>
+        <v>2558.5898</v>
       </c>
       <c r="G30" t="n">
-        <v>14.79333333333335</v>
+        <v>292633.3171295776</v>
       </c>
       <c r="H30" t="n">
-        <v>14.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,30 +1614,29 @@
         <v>14.8</v>
       </c>
       <c r="F31" t="n">
-        <v>815809.0134000001</v>
+        <v>19200</v>
       </c>
       <c r="G31" t="n">
-        <v>14.79333333333335</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H31" t="n">
-        <v>14.74666666666666</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1636,30 +1657,27 @@
         <v>14.8</v>
       </c>
       <c r="F32" t="n">
-        <v>117638.3783</v>
+        <v>48827.3729</v>
       </c>
       <c r="G32" t="n">
-        <v>14.78666666666668</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H32" t="n">
-        <v>14.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,42 +1686,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C33" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D33" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E33" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F33" t="n">
-        <v>37.6056</v>
+        <v>24000</v>
       </c>
       <c r="G33" t="n">
-        <v>14.77333333333334</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H33" t="n">
-        <v>14.74833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,39 +1730,36 @@
         <v>14.8</v>
       </c>
       <c r="C34" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D34" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E34" t="n">
         <v>14.8</v>
       </c>
       <c r="F34" t="n">
-        <v>20600</v>
+        <v>114125.3614</v>
       </c>
       <c r="G34" t="n">
-        <v>14.77333333333334</v>
+        <v>425958.6785295776</v>
       </c>
       <c r="H34" t="n">
-        <v>14.74999999999999</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1756,42 +1768,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C35" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D35" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E35" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F35" t="n">
-        <v>13854.4594</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="n">
-        <v>14.77333333333334</v>
+        <v>425958.6785295776</v>
       </c>
       <c r="H35" t="n">
-        <v>14.75333333333332</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,42 +1809,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C36" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D36" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F36" t="n">
-        <v>61780.6958</v>
+        <v>95105.17359999999</v>
       </c>
       <c r="G36" t="n">
-        <v>14.77333333333334</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H36" t="n">
-        <v>14.75499999999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,42 +1850,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D37" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E37" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>4200</v>
+        <v>20800</v>
       </c>
       <c r="G37" t="n">
-        <v>14.77333333333334</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H37" t="n">
-        <v>14.75833333333332</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,42 +1891,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D38" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>9000</v>
+        <v>20600</v>
       </c>
       <c r="G38" t="n">
-        <v>14.78000000000001</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H38" t="n">
-        <v>14.76166666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1932,42 +1932,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>30895.3944</v>
+        <v>162800</v>
       </c>
       <c r="G39" t="n">
-        <v>14.78000000000001</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H39" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,44 +1973,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C40" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D40" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E40" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F40" t="n">
-        <v>6559.957</v>
+        <v>1000</v>
       </c>
       <c r="G40" t="n">
-        <v>14.77333333333334</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H40" t="n">
-        <v>14.76499999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,44 +2014,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C41" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D41" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E41" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F41" t="n">
-        <v>2710</v>
+        <v>135133.2078</v>
       </c>
       <c r="G41" t="n">
-        <v>14.77333333333334</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H41" t="n">
-        <v>14.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L41" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,44 +2055,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C42" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D42" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E42" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F42" t="n">
-        <v>2270.321</v>
+        <v>16737.091</v>
       </c>
       <c r="G42" t="n">
-        <v>14.77333333333334</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H42" t="n">
-        <v>14.77333333333332</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2114,42 +2096,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C43" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D43" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E43" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F43" t="n">
-        <v>16000</v>
+        <v>101800</v>
       </c>
       <c r="G43" t="n">
-        <v>14.77333333333334</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H43" t="n">
-        <v>14.77333333333332</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,44 +2137,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C44" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D44" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E44" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F44" t="n">
-        <v>3841.8351</v>
+        <v>16603.65</v>
       </c>
       <c r="G44" t="n">
-        <v>14.76000000000001</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H44" t="n">
-        <v>14.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,44 +2178,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C45" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D45" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E45" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F45" t="n">
-        <v>2400</v>
+        <v>34163.4526</v>
       </c>
       <c r="G45" t="n">
-        <v>14.75333333333334</v>
+        <v>485900.3995295776</v>
       </c>
       <c r="H45" t="n">
-        <v>14.77333333333332</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>14.6</v>
       </c>
-      <c r="L45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,44 +2219,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C46" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D46" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E46" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F46" t="n">
-        <v>1.8351</v>
+        <v>4297.12</v>
       </c>
       <c r="G46" t="n">
-        <v>14.74666666666667</v>
+        <v>490197.5195295776</v>
       </c>
       <c r="H46" t="n">
-        <v>14.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2296,44 +2260,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C47" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D47" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E47" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>79800</v>
       </c>
       <c r="G47" t="n">
-        <v>14.74666666666667</v>
+        <v>490197.5195295776</v>
       </c>
       <c r="H47" t="n">
-        <v>14.77833333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,44 +2301,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C48" t="n">
         <v>14.8</v>
       </c>
       <c r="D48" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E48" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F48" t="n">
-        <v>53742</v>
+        <v>13844.9054</v>
       </c>
       <c r="G48" t="n">
-        <v>14.75333333333334</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H48" t="n">
-        <v>14.77999999999998</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,42 +2342,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C49" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D49" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E49" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F49" t="n">
-        <v>20000</v>
+        <v>6357.9721</v>
       </c>
       <c r="G49" t="n">
-        <v>14.74666666666667</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H49" t="n">
-        <v>14.77999999999998</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2444,30 +2395,27 @@
         <v>14.7</v>
       </c>
       <c r="F50" t="n">
-        <v>47634.18</v>
+        <v>42000</v>
       </c>
       <c r="G50" t="n">
-        <v>14.74666666666667</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H50" t="n">
-        <v>14.78166666666665</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,39 +2427,36 @@
         <v>14.7</v>
       </c>
       <c r="C51" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D51" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E51" t="n">
         <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>163</v>
+        <v>63000</v>
       </c>
       <c r="G51" t="n">
-        <v>14.74000000000001</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H51" t="n">
-        <v>14.78166666666665</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,32 +2477,27 @@
         <v>14.7</v>
       </c>
       <c r="F52" t="n">
-        <v>1640.8027</v>
+        <v>3378</v>
       </c>
       <c r="G52" t="n">
-        <v>14.73333333333334</v>
+        <v>472974.6141295776</v>
       </c>
       <c r="H52" t="n">
-        <v>14.78333333333331</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,44 +2506,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C53" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D53" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E53" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F53" t="n">
-        <v>106797.0855</v>
+        <v>3622</v>
       </c>
       <c r="G53" t="n">
-        <v>14.73333333333334</v>
+        <v>472974.6141295776</v>
       </c>
       <c r="H53" t="n">
-        <v>14.78499999999998</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,7 +2547,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C54" t="n">
         <v>14.8</v>
@@ -2621,35 +2556,30 @@
         <v>14.8</v>
       </c>
       <c r="E54" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F54" t="n">
-        <v>51043.9786</v>
+        <v>96020</v>
       </c>
       <c r="G54" t="n">
-        <v>14.74000000000001</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H54" t="n">
-        <v>14.78999999999998</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,30 +2600,27 @@
         <v>14.8</v>
       </c>
       <c r="F55" t="n">
-        <v>100753.846</v>
+        <v>45400</v>
       </c>
       <c r="G55" t="n">
-        <v>14.74666666666667</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H55" t="n">
-        <v>14.79166666666664</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,30 +2641,27 @@
         <v>14.8</v>
       </c>
       <c r="F56" t="n">
-        <v>128507.708</v>
+        <v>7206</v>
       </c>
       <c r="G56" t="n">
-        <v>14.74666666666667</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H56" t="n">
-        <v>14.79333333333331</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,42 +2670,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C57" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D57" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E57" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F57" t="n">
-        <v>202067.2269</v>
+        <v>69467</v>
       </c>
       <c r="G57" t="n">
-        <v>14.75333333333334</v>
+        <v>499527.6141295775</v>
       </c>
       <c r="H57" t="n">
-        <v>14.79666666666664</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,42 +2711,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C58" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D58" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E58" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F58" t="n">
-        <v>353.1757</v>
+        <v>70600</v>
       </c>
       <c r="G58" t="n">
-        <v>14.76666666666667</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H58" t="n">
-        <v>14.79999999999997</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,42 +2752,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C59" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D59" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E59" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F59" t="n">
-        <v>6596.1744</v>
+        <v>399870.022</v>
       </c>
       <c r="G59" t="n">
-        <v>14.78666666666667</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H59" t="n">
-        <v>14.80333333333331</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,39 +2796,36 @@
         <v>14.8</v>
       </c>
       <c r="C60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D60" t="n">
         <v>14.8</v>
       </c>
       <c r="E60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F60" t="n">
-        <v>63000</v>
+        <v>815809.0134000001</v>
       </c>
       <c r="G60" t="n">
-        <v>14.78666666666667</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H60" t="n">
-        <v>14.80666666666664</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,42 +2834,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C61" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D61" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E61" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F61" t="n">
-        <v>12600</v>
+        <v>117638.3783</v>
       </c>
       <c r="G61" t="n">
-        <v>14.78666666666667</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H61" t="n">
-        <v>14.80666666666664</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,42 +2875,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C62" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D62" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E62" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F62" t="n">
-        <v>3952.8398</v>
+        <v>37.6056</v>
       </c>
       <c r="G62" t="n">
-        <v>14.77333333333334</v>
+        <v>570090.0085295775</v>
       </c>
       <c r="H62" t="n">
-        <v>14.80333333333331</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,42 +2916,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C63" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D63" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E63" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F63" t="n">
-        <v>5400</v>
+        <v>20600</v>
       </c>
       <c r="G63" t="n">
-        <v>14.76666666666667</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H63" t="n">
-        <v>14.80166666666664</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,44 +2957,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C64" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D64" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E64" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F64" t="n">
-        <v>12600</v>
+        <v>13854.4594</v>
       </c>
       <c r="G64" t="n">
-        <v>14.76666666666667</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H64" t="n">
-        <v>14.79999999999998</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L64" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,44 +2998,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C65" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D65" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E65" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F65" t="n">
-        <v>3827.9515</v>
+        <v>61780.6958</v>
       </c>
       <c r="G65" t="n">
-        <v>14.75333333333334</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H65" t="n">
-        <v>14.79499999999998</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L65" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,44 +3039,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C66" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D66" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E66" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>4200</v>
       </c>
       <c r="G66" t="n">
-        <v>14.75333333333334</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H66" t="n">
-        <v>14.79166666666665</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>14.6</v>
       </c>
-      <c r="L66" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,41 +3083,36 @@
         <v>14.8</v>
       </c>
       <c r="C67" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D67" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E67" t="n">
         <v>14.8</v>
       </c>
       <c r="F67" t="n">
-        <v>89000</v>
+        <v>9000</v>
       </c>
       <c r="G67" t="n">
-        <v>14.76666666666667</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H67" t="n">
-        <v>14.78999999999998</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L67" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,30 +3133,27 @@
         <v>14.7</v>
       </c>
       <c r="F68" t="n">
-        <v>2338.8318</v>
+        <v>30895.3944</v>
       </c>
       <c r="G68" t="n">
-        <v>14.76</v>
+        <v>559794.6141295775</v>
       </c>
       <c r="H68" t="n">
-        <v>14.78499999999998</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,30 +3174,27 @@
         <v>14.7</v>
       </c>
       <c r="F69" t="n">
-        <v>56617.4518</v>
+        <v>6559.957</v>
       </c>
       <c r="G69" t="n">
-        <v>14.75333333333334</v>
+        <v>559794.6141295775</v>
       </c>
       <c r="H69" t="n">
-        <v>14.77999999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,42 +3203,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C70" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D70" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E70" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F70" t="n">
-        <v>125292.8271</v>
+        <v>2710</v>
       </c>
       <c r="G70" t="n">
-        <v>14.74666666666667</v>
+        <v>562504.6141295775</v>
       </c>
       <c r="H70" t="n">
-        <v>14.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,42 +3244,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C71" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D71" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E71" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F71" t="n">
-        <v>13191529.7748</v>
+        <v>2270.321</v>
       </c>
       <c r="G71" t="n">
-        <v>14.74</v>
+        <v>562504.6141295775</v>
       </c>
       <c r="H71" t="n">
-        <v>14.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,30 +3297,27 @@
         <v>14.7</v>
       </c>
       <c r="F72" t="n">
-        <v>9217158.624600001</v>
+        <v>16000</v>
       </c>
       <c r="G72" t="n">
-        <v>14.72666666666666</v>
+        <v>546504.6141295775</v>
       </c>
       <c r="H72" t="n">
-        <v>14.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3461,39 +3329,36 @@
         <v>14.7</v>
       </c>
       <c r="C73" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D73" t="n">
         <v>14.7</v>
       </c>
       <c r="E73" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F73" t="n">
-        <v>2785.85</v>
+        <v>3841.8351</v>
       </c>
       <c r="G73" t="n">
-        <v>14.71333333333333</v>
+        <v>542662.7790295775</v>
       </c>
       <c r="H73" t="n">
-        <v>14.76499999999998</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,42 +3367,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C74" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D74" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E74" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F74" t="n">
-        <v>9557.663200000001</v>
+        <v>2400</v>
       </c>
       <c r="G74" t="n">
-        <v>14.71333333333333</v>
+        <v>545062.7790295775</v>
       </c>
       <c r="H74" t="n">
-        <v>14.76499999999998</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,42 +3408,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C75" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D75" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E75" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>1.8351</v>
       </c>
       <c r="G75" t="n">
-        <v>14.72</v>
+        <v>545062.7790295775</v>
       </c>
       <c r="H75" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,30 +3461,27 @@
         <v>14.8</v>
       </c>
       <c r="F76" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>14.72666666666667</v>
+        <v>545162.7790295775</v>
       </c>
       <c r="H76" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,42 +3490,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C77" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D77" t="n">
         <v>14.9</v>
       </c>
       <c r="E77" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F77" t="n">
-        <v>14600.95</v>
+        <v>53742</v>
       </c>
       <c r="G77" t="n">
-        <v>14.74666666666667</v>
+        <v>545162.7790295775</v>
       </c>
       <c r="H77" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,42 +3531,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C78" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D78" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E78" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F78" t="n">
-        <v>7110.9831</v>
+        <v>20000</v>
       </c>
       <c r="G78" t="n">
-        <v>14.76</v>
+        <v>525162.7790295775</v>
       </c>
       <c r="H78" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,42 +3572,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C79" t="n">
         <v>14.8</v>
       </c>
       <c r="D79" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E79" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F79" t="n">
-        <v>2751</v>
+        <v>47634.18</v>
       </c>
       <c r="G79" t="n">
-        <v>14.76666666666667</v>
+        <v>572796.9590295776</v>
       </c>
       <c r="H79" t="n">
-        <v>14.76333333333332</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,42 +3613,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C80" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D80" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E80" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F80" t="n">
-        <v>100425</v>
+        <v>163</v>
       </c>
       <c r="G80" t="n">
-        <v>14.78666666666667</v>
+        <v>572633.9590295776</v>
       </c>
       <c r="H80" t="n">
-        <v>14.76499999999998</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,42 +3654,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E81" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F81" t="n">
-        <v>3106.636</v>
+        <v>1640.8027</v>
       </c>
       <c r="G81" t="n">
-        <v>14.80666666666667</v>
+        <v>572633.9590295776</v>
       </c>
       <c r="H81" t="n">
-        <v>14.76833333333332</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,42 +3695,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E82" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F82" t="n">
-        <v>69356.9427</v>
+        <v>106797.0855</v>
       </c>
       <c r="G82" t="n">
-        <v>14.81333333333334</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H82" t="n">
-        <v>14.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,42 +3736,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C83" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D83" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F83" t="n">
-        <v>230295.2844</v>
+        <v>51043.9786</v>
       </c>
       <c r="G83" t="n">
-        <v>14.84000000000001</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H83" t="n">
-        <v>14.77833333333332</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3942,42 +3777,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C84" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D84" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E84" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F84" t="n">
-        <v>3509.933774834437</v>
+        <v>100753.846</v>
       </c>
       <c r="G84" t="n">
-        <v>14.86666666666667</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H84" t="n">
-        <v>14.78499999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,42 +3818,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F85" t="n">
-        <v>273840.6413251656</v>
+        <v>128507.708</v>
       </c>
       <c r="G85" t="n">
-        <v>14.89333333333334</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H85" t="n">
-        <v>14.78999999999999</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,42 +3859,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C86" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D86" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E86" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F86" t="n">
-        <v>1145530.5228</v>
+        <v>202067.2269</v>
       </c>
       <c r="G86" t="n">
-        <v>14.92000000000001</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H86" t="n">
-        <v>14.79499999999999</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,42 +3900,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C87" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D87" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E87" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F87" t="n">
-        <v>29070.7798</v>
+        <v>353.1757</v>
       </c>
       <c r="G87" t="n">
-        <v>14.94666666666667</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H87" t="n">
-        <v>14.79999999999999</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,42 +3941,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C88" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D88" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E88" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F88" t="n">
-        <v>57890.8933</v>
+        <v>6596.1744</v>
       </c>
       <c r="G88" t="n">
-        <v>14.97333333333334</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H88" t="n">
-        <v>14.80666666666665</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,42 +3982,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C89" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D89" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E89" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F89" t="n">
-        <v>2890.579</v>
+        <v>63000</v>
       </c>
       <c r="G89" t="n">
-        <v>14.99333333333334</v>
+        <v>818498.2714295776</v>
       </c>
       <c r="H89" t="n">
-        <v>14.81333333333332</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4206,42 +4023,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C90" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D90" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E90" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F90" t="n">
-        <v>1238542.766294771</v>
+        <v>12600</v>
       </c>
       <c r="G90" t="n">
-        <v>15.02666666666667</v>
+        <v>818498.2714295776</v>
       </c>
       <c r="H90" t="n">
-        <v>14.82166666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,42 +4064,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="C91" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="D91" t="n">
-        <v>15.4</v>
+        <v>14.6</v>
       </c>
       <c r="E91" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F91" t="n">
-        <v>6157.07</v>
+        <v>3952.8398</v>
       </c>
       <c r="G91" t="n">
-        <v>15.06666666666667</v>
+        <v>814545.4316295777</v>
       </c>
       <c r="H91" t="n">
-        <v>14.83166666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,43 +4105,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C92" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="D92" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
       <c r="E92" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="F92" t="n">
-        <v>1960</v>
+        <v>5400</v>
       </c>
       <c r="G92" t="n">
-        <v>15.1</v>
+        <v>819945.4316295777</v>
       </c>
       <c r="H92" t="n">
-        <v>14.84166666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>1.042619047619048</v>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4338,36 +4146,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C93" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D93" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E93" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F93" t="n">
-        <v>31600</v>
+        <v>12600</v>
       </c>
       <c r="G93" t="n">
-        <v>15.11333333333334</v>
+        <v>819945.4316295777</v>
       </c>
       <c r="H93" t="n">
-        <v>14.84833333333332</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4376,36 +4187,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C94" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D94" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E94" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F94" t="n">
-        <v>9698</v>
+        <v>3827.9515</v>
       </c>
       <c r="G94" t="n">
-        <v>15.13333333333334</v>
+        <v>816117.4801295777</v>
       </c>
       <c r="H94" t="n">
-        <v>14.85333333333332</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4414,36 +4228,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C95" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D95" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E95" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F95" t="n">
-        <v>40159.0433</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>15.14666666666667</v>
+        <v>816217.4801295777</v>
       </c>
       <c r="H95" t="n">
-        <v>14.85833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,36 +4269,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C96" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D96" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F96" t="n">
-        <v>5268.38</v>
+        <v>89000</v>
       </c>
       <c r="G96" t="n">
-        <v>15.15333333333334</v>
+        <v>905217.4801295777</v>
       </c>
       <c r="H96" t="n">
-        <v>14.86333333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,36 +4310,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D97" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F97" t="n">
-        <v>121600</v>
+        <v>2338.8318</v>
       </c>
       <c r="G97" t="n">
-        <v>15.15333333333334</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H97" t="n">
-        <v>14.86666666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,36 +4351,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C98" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D98" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E98" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F98" t="n">
-        <v>9109.6939</v>
+        <v>56617.4518</v>
       </c>
       <c r="G98" t="n">
-        <v>15.14666666666667</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H98" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4566,36 +4392,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D99" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F99" t="n">
-        <v>118250.9342</v>
+        <v>125292.8271</v>
       </c>
       <c r="G99" t="n">
-        <v>15.14</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H99" t="n">
-        <v>14.87499999999999</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4604,36 +4433,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C100" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D100" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E100" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F100" t="n">
-        <v>169875</v>
+        <v>13191529.7748</v>
       </c>
       <c r="G100" t="n">
-        <v>15.13333333333334</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H100" t="n">
-        <v>14.87999999999999</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4642,36 +4474,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F101" t="n">
-        <v>3290</v>
+        <v>9217158.624600001</v>
       </c>
       <c r="G101" t="n">
-        <v>15.14</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H101" t="n">
-        <v>14.88666666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,36 +4515,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C102" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D102" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F102" t="n">
-        <v>1920.67</v>
+        <v>2785.85</v>
       </c>
       <c r="G102" t="n">
-        <v>15.13333333333334</v>
+        <v>902878.6483295776</v>
       </c>
       <c r="H102" t="n">
-        <v>14.89</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,36 +4556,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C103" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F103" t="n">
-        <v>1920.6672</v>
+        <v>9557.663200000001</v>
       </c>
       <c r="G103" t="n">
-        <v>15.13333333333334</v>
+        <v>912436.3115295776</v>
       </c>
       <c r="H103" t="n">
-        <v>14.89666666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,36 +4597,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C104" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D104" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E104" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F104" t="n">
-        <v>45211.6651</v>
+        <v>21</v>
       </c>
       <c r="G104" t="n">
-        <v>15.12666666666667</v>
+        <v>912415.3115295776</v>
       </c>
       <c r="H104" t="n">
-        <v>14.905</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,36 +4638,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D105" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F105" t="n">
-        <v>8200</v>
+        <v>79</v>
       </c>
       <c r="G105" t="n">
-        <v>15.10666666666667</v>
+        <v>912415.3115295776</v>
       </c>
       <c r="H105" t="n">
-        <v>14.90999999999999</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,36 +4679,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C106" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D106" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E106" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1812.4515</v>
+        <v>14600.95</v>
       </c>
       <c r="G106" t="n">
-        <v>15.09333333333334</v>
+        <v>927016.2615295775</v>
       </c>
       <c r="H106" t="n">
-        <v>14.91833333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,36 +4720,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C107" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D107" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E107" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F107" t="n">
-        <v>62154.9102</v>
+        <v>7110.9831</v>
       </c>
       <c r="G107" t="n">
-        <v>15.08</v>
+        <v>927016.2615295775</v>
       </c>
       <c r="H107" t="n">
-        <v>14.925</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,36 +4761,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C108" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D108" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F108" t="n">
-        <v>39200</v>
+        <v>2751</v>
       </c>
       <c r="G108" t="n">
-        <v>15.07333333333333</v>
+        <v>924265.2615295775</v>
       </c>
       <c r="H108" t="n">
-        <v>14.92833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,36 +4802,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C109" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D109" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E109" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F109" t="n">
-        <v>700</v>
+        <v>100425</v>
       </c>
       <c r="G109" t="n">
-        <v>15.07333333333333</v>
+        <v>1024690.261529578</v>
       </c>
       <c r="H109" t="n">
-        <v>14.935</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,36 +4843,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C110" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F110" t="n">
-        <v>1000</v>
+        <v>3106.636</v>
       </c>
       <c r="G110" t="n">
-        <v>15.07333333333333</v>
+        <v>1027796.897529578</v>
       </c>
       <c r="H110" t="n">
-        <v>14.94</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,36 +4884,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C111" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F111" t="n">
-        <v>69.93000000000001</v>
+        <v>69356.9427</v>
       </c>
       <c r="G111" t="n">
-        <v>15.08</v>
+        <v>1027796.897529578</v>
       </c>
       <c r="H111" t="n">
-        <v>14.94833333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,7 +4925,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C112" t="n">
         <v>15.1</v>
@@ -5069,27 +4934,30 @@
         <v>15.1</v>
       </c>
       <c r="E112" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>50000</v>
+        <v>230295.2844</v>
       </c>
       <c r="G112" t="n">
-        <v>15.08666666666667</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H112" t="n">
-        <v>14.955</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,24 +4978,27 @@
         <v>15.1</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>3509.933774834437</v>
       </c>
       <c r="G113" t="n">
-        <v>15.09333333333333</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H113" t="n">
-        <v>14.96</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,36 +5007,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C114" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D114" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E114" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F114" t="n">
-        <v>20299.0537</v>
+        <v>273840.6413251656</v>
       </c>
       <c r="G114" t="n">
-        <v>15.10666666666667</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H114" t="n">
-        <v>14.96666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5174,36 +5048,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C115" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D115" t="n">
         <v>15.3</v>
       </c>
       <c r="E115" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F115" t="n">
-        <v>99800</v>
+        <v>1145530.5228</v>
       </c>
       <c r="G115" t="n">
-        <v>15.12666666666667</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H115" t="n">
-        <v>14.975</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,24 +5101,27 @@
         <v>15.1</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>29070.7798</v>
       </c>
       <c r="G116" t="n">
-        <v>15.12</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H116" t="n">
-        <v>14.98</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5250,36 +5130,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C117" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D117" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E117" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F117" t="n">
-        <v>6778.657</v>
+        <v>57890.8933</v>
       </c>
       <c r="G117" t="n">
-        <v>15.14</v>
+        <v>1258092.181929578</v>
       </c>
       <c r="H117" t="n">
-        <v>14.98666666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,24 +5183,27 @@
         <v>15.2</v>
       </c>
       <c r="F118" t="n">
-        <v>37000</v>
+        <v>2890.579</v>
       </c>
       <c r="G118" t="n">
-        <v>15.14666666666667</v>
+        <v>1260982.760929578</v>
       </c>
       <c r="H118" t="n">
-        <v>14.99166666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,7 +5212,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C119" t="n">
         <v>15.3</v>
@@ -5335,27 +5221,30 @@
         <v>15.3</v>
       </c>
       <c r="E119" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F119" t="n">
-        <v>2259.5523</v>
+        <v>1238542.766294771</v>
       </c>
       <c r="G119" t="n">
-        <v>15.16</v>
+        <v>2499525.527224349</v>
       </c>
       <c r="H119" t="n">
-        <v>14.99833333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,33 +5256,36 @@
         <v>15.2</v>
       </c>
       <c r="C120" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D120" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E120" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F120" t="n">
-        <v>66200</v>
+        <v>6157.07</v>
       </c>
       <c r="G120" t="n">
-        <v>15.17333333333334</v>
+        <v>2505682.597224349</v>
       </c>
       <c r="H120" t="n">
-        <v>15.00666666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5402,36 +5294,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C121" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D121" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E121" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F121" t="n">
-        <v>24993.49</v>
+        <v>1960</v>
       </c>
       <c r="G121" t="n">
-        <v>15.17333333333334</v>
+        <v>2505682.597224349</v>
       </c>
       <c r="H121" t="n">
-        <v>15.015</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5440,36 +5335,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C122" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D122" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E122" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F122" t="n">
-        <v>16559.2865</v>
+        <v>31600</v>
       </c>
       <c r="G122" t="n">
-        <v>15.17333333333334</v>
+        <v>2474082.597224349</v>
       </c>
       <c r="H122" t="n">
-        <v>15.025</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5478,36 +5376,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C123" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D123" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E123" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F123" t="n">
-        <v>59842.2491</v>
+        <v>9698</v>
       </c>
       <c r="G123" t="n">
-        <v>15.18666666666667</v>
+        <v>2474082.597224349</v>
       </c>
       <c r="H123" t="n">
-        <v>15.03333333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,36 +5417,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C124" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D124" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E124" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F124" t="n">
-        <v>161239.2468</v>
+        <v>40159.0433</v>
       </c>
       <c r="G124" t="n">
-        <v>15.20666666666667</v>
+        <v>2474082.597224349</v>
       </c>
       <c r="H124" t="n">
-        <v>15.045</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5554,36 +5458,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C125" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D125" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E125" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F125" t="n">
-        <v>12200</v>
+        <v>5268.38</v>
       </c>
       <c r="G125" t="n">
-        <v>15.21333333333333</v>
+        <v>2474082.597224349</v>
       </c>
       <c r="H125" t="n">
-        <v>15.055</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,36 +5499,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C126" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F126" t="n">
-        <v>20400</v>
+        <v>121600</v>
       </c>
       <c r="G126" t="n">
-        <v>15.21333333333333</v>
+        <v>2352482.597224349</v>
       </c>
       <c r="H126" t="n">
-        <v>15.06333333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,36 +5540,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C127" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D127" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E127" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>99959.1393</v>
+        <v>9109.6939</v>
       </c>
       <c r="G127" t="n">
-        <v>15.21333333333333</v>
+        <v>2352482.597224349</v>
       </c>
       <c r="H127" t="n">
-        <v>15.06666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5668,36 +5581,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="C128" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="D128" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E128" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="F128" t="n">
-        <v>31750</v>
+        <v>118250.9342</v>
       </c>
       <c r="G128" t="n">
-        <v>15.22666666666667</v>
+        <v>2352482.597224349</v>
       </c>
       <c r="H128" t="n">
-        <v>15.07666666666667</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5706,36 +5622,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C129" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D129" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E129" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F129" t="n">
-        <v>36398.0169</v>
+        <v>169875</v>
       </c>
       <c r="G129" t="n">
-        <v>15.22</v>
+        <v>2352482.597224349</v>
       </c>
       <c r="H129" t="n">
-        <v>15.08333333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5744,36 +5663,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C130" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D130" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E130" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F130" t="n">
-        <v>59600</v>
+        <v>3290</v>
       </c>
       <c r="G130" t="n">
-        <v>15.20666666666667</v>
+        <v>2355772.597224349</v>
       </c>
       <c r="H130" t="n">
-        <v>15.09</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5785,33 +5707,36 @@
         <v>15.1</v>
       </c>
       <c r="C131" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
         <v>15.1</v>
       </c>
       <c r="E131" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F131" t="n">
-        <v>43854.0622</v>
+        <v>1920.67</v>
       </c>
       <c r="G131" t="n">
-        <v>15.20666666666667</v>
+        <v>2353851.927224349</v>
       </c>
       <c r="H131" t="n">
-        <v>15.09666666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5832,24 +5757,27 @@
         <v>15.1</v>
       </c>
       <c r="F132" t="n">
-        <v>2030</v>
+        <v>1920.6672</v>
       </c>
       <c r="G132" t="n">
-        <v>15.19333333333333</v>
+        <v>2355772.594424349</v>
       </c>
       <c r="H132" t="n">
-        <v>15.10333333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,24 +5798,27 @@
         <v>15.1</v>
       </c>
       <c r="F133" t="n">
-        <v>2030</v>
+        <v>45211.6651</v>
       </c>
       <c r="G133" t="n">
-        <v>15.18666666666667</v>
+        <v>2355772.594424349</v>
       </c>
       <c r="H133" t="n">
-        <v>15.11</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,33 +5830,1171 @@
         <v>15.1</v>
       </c>
       <c r="C134" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D134" t="n">
         <v>15.1</v>
       </c>
       <c r="E134" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F134" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2347572.594424349</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1812.4515</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2349385.045924349</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>62154.9102</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2349385.045924349</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15</v>
+      </c>
+      <c r="F137" t="n">
+        <v>39200</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2310185.045924349</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>700</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2310885.045924349</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2310885.045924349</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>69.93000000000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2310954.975924349</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2260954.975924349</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2260954.975924349</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>20299.0537</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2281254.029624349</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>99800</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2381054.029624349</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2380054.029624349</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6778.657</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2386832.686624349</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2349832.686624349</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2259.5523</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2352092.238924349</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>66200</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>24993.49</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16559.2865</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>59842.2491</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>161239.2468</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2447131.485724349</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2434931.485724349</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1.036095890410959</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2434931.485724349</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>99959.1393</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2334972.346424349</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F157" t="n">
+        <v>31750</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2366722.346424349</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>36398.0169</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>59600</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>43854.0622</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F163" t="n">
         <v>128.2781</v>
       </c>
-      <c r="G134" t="n">
-        <v>15.17333333333333</v>
-      </c>
-      <c r="H134" t="n">
-        <v>15.11333333333333</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="G163" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C2" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D2" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E2" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F2" t="n">
-        <v>9975</v>
+        <v>16603.65</v>
       </c>
       <c r="G2" t="n">
-        <v>250319.6605295775</v>
+        <v>14.89999999999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E3" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F3" t="n">
-        <v>24000</v>
+        <v>34163.4526</v>
       </c>
       <c r="G3" t="n">
-        <v>250319.6605295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,63 +503,69 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="C4" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="D4" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6</v>
+        <v>14.9</v>
       </c>
       <c r="F4" t="n">
-        <v>69189.3737</v>
+        <v>4297.12</v>
       </c>
       <c r="G4" t="n">
-        <v>181130.2868295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.8</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C5" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E5" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F5" t="n">
-        <v>47690.2703</v>
+        <v>79800</v>
       </c>
       <c r="G5" t="n">
-        <v>228820.5571295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,33 +574,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C6" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D6" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E6" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F6" t="n">
-        <v>24000</v>
+        <v>13844.9054</v>
       </c>
       <c r="G6" t="n">
-        <v>204820.5571295775</v>
+        <v>14.86666666666664</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,33 +616,40 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C7" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D7" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E7" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F7" t="n">
-        <v>4211.2904</v>
+        <v>6357.9721</v>
       </c>
       <c r="G7" t="n">
-        <v>204820.5571295775</v>
+        <v>14.8333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,98 +663,113 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C8" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D8" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E8" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F8" t="n">
-        <v>5953.6523</v>
+        <v>42000</v>
       </c>
       <c r="G8" t="n">
-        <v>204820.5571295775</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C9" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D9" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E9" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F9" t="n">
-        <v>1040.1304</v>
+        <v>63000</v>
       </c>
       <c r="G9" t="n">
-        <v>204820.5571295775</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E10" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F10" t="n">
-        <v>1652.8751</v>
+        <v>3378</v>
       </c>
       <c r="G10" t="n">
-        <v>204820.5571295775</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -737,78 +778,82 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="C11" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="D11" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E11" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="F11" t="n">
-        <v>880</v>
+        <v>3622</v>
       </c>
       <c r="G11" t="n">
-        <v>203940.5571295775</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C12" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E12" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F12" t="n">
-        <v>77996.7684</v>
+        <v>96020</v>
       </c>
       <c r="G12" t="n">
-        <v>281937.3255295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -817,52 +862,51 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F13" t="n">
-        <v>5769.23</v>
+        <v>45400</v>
       </c>
       <c r="G13" t="n">
-        <v>281937.3255295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -871,39 +915,40 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E14" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F14" t="n">
-        <v>2307.692</v>
+        <v>7206</v>
       </c>
       <c r="G14" t="n">
-        <v>279629.6335295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -912,39 +957,40 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D15" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1787.6796</v>
+        <v>69467</v>
       </c>
       <c r="G15" t="n">
-        <v>279629.6335295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -953,39 +999,40 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C16" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D16" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E16" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F16" t="n">
-        <v>24851.7788</v>
+        <v>70600</v>
       </c>
       <c r="G16" t="n">
-        <v>279629.6335295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J16" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -994,28 +1041,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D17" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E17" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F17" t="n">
-        <v>12800</v>
+        <v>399870.022</v>
       </c>
       <c r="G17" t="n">
-        <v>292429.6335295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1024,11 +1072,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1037,28 +1083,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F18" t="n">
-        <v>15653.9999</v>
+        <v>815809.0134000001</v>
       </c>
       <c r="G18" t="n">
-        <v>292429.6335295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1067,11 +1114,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1080,28 +1125,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E19" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F19" t="n">
-        <v>20000</v>
+        <v>117638.3783</v>
       </c>
       <c r="G19" t="n">
-        <v>292429.6335295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1110,11 +1156,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1123,6 +1167,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1141,10 +1186,10 @@
         <v>14.7</v>
       </c>
       <c r="F20" t="n">
-        <v>14063.6125</v>
+        <v>37.6056</v>
       </c>
       <c r="G20" t="n">
-        <v>292429.6335295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1153,11 +1198,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1166,28 +1209,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C21" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="D21" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F21" t="n">
-        <v>3000</v>
+        <v>20600</v>
       </c>
       <c r="G21" t="n">
-        <v>289429.6335295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1198,9 +1242,7 @@
       <c r="J21" t="n">
         <v>14.7</v>
       </c>
-      <c r="K21" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1209,28 +1251,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E22" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F22" t="n">
-        <v>1409.4062</v>
+        <v>13854.4594</v>
       </c>
       <c r="G22" t="n">
-        <v>290839.0397295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1239,11 +1282,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1252,28 +1293,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C23" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D23" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E23" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F23" t="n">
-        <v>2788.97</v>
+        <v>61780.6958</v>
       </c>
       <c r="G23" t="n">
-        <v>288050.0697295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1282,11 +1324,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1295,28 +1335,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E24" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F24" t="n">
-        <v>8600</v>
+        <v>4200</v>
       </c>
       <c r="G24" t="n">
-        <v>296650.0697295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1325,11 +1366,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,28 +1377,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E25" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F25" t="n">
-        <v>64960</v>
+        <v>9000</v>
       </c>
       <c r="G25" t="n">
-        <v>296650.0697295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1368,11 +1408,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1381,6 +1419,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1396,13 +1435,13 @@
         <v>14.7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F26" t="n">
-        <v>47120.5985</v>
+        <v>30895.3944</v>
       </c>
       <c r="G26" t="n">
-        <v>296650.0697295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1411,11 +1450,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1424,6 +1461,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1442,10 +1480,10 @@
         <v>14.7</v>
       </c>
       <c r="F27" t="n">
-        <v>11609.2957</v>
+        <v>6559.957</v>
       </c>
       <c r="G27" t="n">
-        <v>296650.0697295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1456,9 +1494,7 @@
       <c r="J27" t="n">
         <v>14.7</v>
       </c>
-      <c r="K27" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1467,28 +1503,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E28" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F28" t="n">
-        <v>11956.178</v>
+        <v>2710</v>
       </c>
       <c r="G28" t="n">
-        <v>296650.0697295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1499,9 +1536,7 @@
       <c r="J28" t="n">
         <v>14.7</v>
       </c>
-      <c r="K28" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1510,28 +1545,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C29" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D29" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E29" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F29" t="n">
-        <v>6575.3424</v>
+        <v>2270.321</v>
       </c>
       <c r="G29" t="n">
-        <v>290074.7273295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1540,11 +1576,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1553,6 +1587,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1571,10 +1606,10 @@
         <v>14.7</v>
       </c>
       <c r="F30" t="n">
-        <v>2558.5898</v>
+        <v>16000</v>
       </c>
       <c r="G30" t="n">
-        <v>292633.3171295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1583,11 +1618,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>14.6</v>
-      </c>
+        <v>14.8</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1596,28 +1629,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C31" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E31" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F31" t="n">
-        <v>19200</v>
+        <v>3841.8351</v>
       </c>
       <c r="G31" t="n">
-        <v>311833.3171295776</v>
+        <v>14.69999999999997</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1628,9 +1662,7 @@
       <c r="J31" t="n">
         <v>14.7</v>
       </c>
-      <c r="K31" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1639,39 +1671,40 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C32" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D32" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E32" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F32" t="n">
-        <v>48827.3729</v>
+        <v>2400</v>
       </c>
       <c r="G32" t="n">
-        <v>311833.3171295776</v>
+        <v>14.66666666666664</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="J32" t="n">
         <v>14.6</v>
       </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1680,39 +1713,40 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E33" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F33" t="n">
-        <v>24000</v>
+        <v>1.8351</v>
       </c>
       <c r="G33" t="n">
-        <v>311833.3171295776</v>
+        <v>14.66666666666664</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J33" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1721,6 +1755,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1730,30 +1765,30 @@
         <v>14.8</v>
       </c>
       <c r="C34" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D34" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E34" t="n">
         <v>14.8</v>
       </c>
       <c r="F34" t="n">
-        <v>114125.3614</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>425958.6785295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1762,39 +1797,40 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C35" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D35" t="n">
         <v>14.9</v>
       </c>
       <c r="E35" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F35" t="n">
-        <v>10000</v>
+        <v>53742</v>
       </c>
       <c r="G35" t="n">
-        <v>425958.6785295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1803,39 +1839,40 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E36" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F36" t="n">
-        <v>95105.17359999999</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="n">
-        <v>521063.8521295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1844,39 +1881,40 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E37" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F37" t="n">
-        <v>20800</v>
+        <v>47634.18</v>
       </c>
       <c r="G37" t="n">
-        <v>521063.8521295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J37" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1885,39 +1923,40 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E38" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F38" t="n">
-        <v>20600</v>
+        <v>163</v>
       </c>
       <c r="G38" t="n">
-        <v>521063.8521295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J38" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1926,39 +1965,40 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="E39" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F39" t="n">
-        <v>162800</v>
+        <v>1640.8027</v>
       </c>
       <c r="G39" t="n">
-        <v>521063.8521295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J39" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,39 +2007,40 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C40" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D40" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E40" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>106797.0855</v>
       </c>
       <c r="G40" t="n">
-        <v>520063.8521295776</v>
+        <v>14.73333333333331</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J40" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2008,39 +2049,40 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C41" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D41" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E41" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F41" t="n">
-        <v>135133.2078</v>
+        <v>51043.9786</v>
       </c>
       <c r="G41" t="n">
-        <v>520063.8521295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2049,28 +2091,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C42" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D42" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E42" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F42" t="n">
-        <v>16737.091</v>
+        <v>100753.846</v>
       </c>
       <c r="G42" t="n">
-        <v>520063.8521295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2079,9 +2122,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,39 +2131,40 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C43" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D43" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E43" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F43" t="n">
-        <v>101800</v>
+        <v>128507.708</v>
       </c>
       <c r="G43" t="n">
-        <v>520063.8521295776</v>
+        <v>14.79999999999997</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J43" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,6 +2173,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2149,10 +2192,10 @@
         <v>14.9</v>
       </c>
       <c r="F44" t="n">
-        <v>16603.65</v>
+        <v>202067.2269</v>
       </c>
       <c r="G44" t="n">
-        <v>520063.8521295776</v>
+        <v>14.83333333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2161,9 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2172,28 +2213,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C45" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D45" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E45" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F45" t="n">
-        <v>34163.4526</v>
+        <v>353.1757</v>
       </c>
       <c r="G45" t="n">
-        <v>485900.3995295776</v>
+        <v>14.86666666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2202,9 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,6 +2253,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2231,10 +2272,10 @@
         <v>14.9</v>
       </c>
       <c r="F46" t="n">
-        <v>4297.12</v>
+        <v>6596.1744</v>
       </c>
       <c r="G46" t="n">
-        <v>490197.5195295776</v>
+        <v>14.89999999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2243,9 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,28 +2293,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C47" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D47" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E47" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F47" t="n">
-        <v>79800</v>
+        <v>63000</v>
       </c>
       <c r="G47" t="n">
-        <v>490197.5195295776</v>
+        <v>14.8333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2284,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2295,28 +2333,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C48" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D48" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E48" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F48" t="n">
-        <v>13844.9054</v>
+        <v>12600</v>
       </c>
       <c r="G48" t="n">
-        <v>476352.6141295776</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2325,9 +2364,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2336,28 +2373,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C49" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D49" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E49" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F49" t="n">
-        <v>6357.9721</v>
+        <v>3952.8398</v>
       </c>
       <c r="G49" t="n">
-        <v>476352.6141295776</v>
+        <v>14.66666666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2366,9 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,6 +2413,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2386,19 +2423,19 @@
         <v>14.7</v>
       </c>
       <c r="C50" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D50" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E50" t="n">
         <v>14.7</v>
       </c>
       <c r="F50" t="n">
-        <v>42000</v>
+        <v>5400</v>
       </c>
       <c r="G50" t="n">
-        <v>476352.6141295776</v>
+        <v>14.66666666666663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2407,9 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2418,6 +2453,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2427,19 +2463,19 @@
         <v>14.7</v>
       </c>
       <c r="C51" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D51" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E51" t="n">
         <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>63000</v>
+        <v>12600</v>
       </c>
       <c r="G51" t="n">
-        <v>476352.6141295776</v>
+        <v>14.66666666666663</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2448,9 +2484,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,28 +2493,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E52" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F52" t="n">
-        <v>3378</v>
+        <v>3827.9515</v>
       </c>
       <c r="G52" t="n">
-        <v>472974.6141295776</v>
+        <v>14.66666666666663</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2489,9 +2524,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,6 +2533,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2518,21 +2552,21 @@
         <v>14.7</v>
       </c>
       <c r="F53" t="n">
-        <v>3622</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>472974.6141295776</v>
+        <v>14.66666666666663</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
+      <c r="J53" t="n">
         <v>14.6</v>
       </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,39 +2575,40 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C54" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D54" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E54" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F54" t="n">
-        <v>96020</v>
+        <v>89000</v>
       </c>
       <c r="G54" t="n">
-        <v>568994.6141295775</v>
+        <v>14.7333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,28 +2617,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C55" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D55" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E55" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F55" t="n">
-        <v>45400</v>
+        <v>2338.8318</v>
       </c>
       <c r="G55" t="n">
-        <v>568994.6141295775</v>
+        <v>14.76666666666664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2612,9 +2648,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,28 +2657,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C56" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D56" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E56" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F56" t="n">
-        <v>7206</v>
+        <v>56617.4518</v>
       </c>
       <c r="G56" t="n">
-        <v>568994.6141295775</v>
+        <v>14.76666666666663</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2653,9 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,39 +2697,40 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C57" t="n">
         <v>14.7</v>
       </c>
       <c r="D57" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E57" t="n">
         <v>14.7</v>
       </c>
       <c r="F57" t="n">
-        <v>69467</v>
+        <v>125292.8271</v>
       </c>
       <c r="G57" t="n">
-        <v>499527.6141295775</v>
+        <v>14.69999999999997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,39 +2739,40 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C58" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D58" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E58" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F58" t="n">
-        <v>70600</v>
+        <v>13191529.7748</v>
       </c>
       <c r="G58" t="n">
-        <v>570127.6141295775</v>
+        <v>14.69999999999997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J58" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,39 +2781,40 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C59" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D59" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E59" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F59" t="n">
-        <v>399870.022</v>
+        <v>9217158.624600001</v>
       </c>
       <c r="G59" t="n">
-        <v>570127.6141295775</v>
+        <v>14.69999999999997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,39 +2823,40 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C60" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D60" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E60" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F60" t="n">
-        <v>815809.0134000001</v>
+        <v>2785.85</v>
       </c>
       <c r="G60" t="n">
-        <v>570127.6141295775</v>
+        <v>14.69999999999997</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J60" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,6 +2865,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2837,30 +2875,30 @@
         <v>14.8</v>
       </c>
       <c r="C61" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D61" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E61" t="n">
         <v>14.8</v>
       </c>
       <c r="F61" t="n">
-        <v>117638.3783</v>
+        <v>9557.663200000001</v>
       </c>
       <c r="G61" t="n">
-        <v>570127.6141295775</v>
+        <v>14.76666666666663</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J61" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2869,28 +2907,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C62" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D62" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E62" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F62" t="n">
-        <v>37.6056</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>570090.0085295775</v>
+        <v>14.79999999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2899,9 +2938,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,6 +2947,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2928,21 +2966,21 @@
         <v>14.8</v>
       </c>
       <c r="F63" t="n">
-        <v>20600</v>
+        <v>79</v>
       </c>
       <c r="G63" t="n">
-        <v>590690.0085295775</v>
+        <v>14.83333333333329</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J63" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2951,28 +2989,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C64" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D64" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E64" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F64" t="n">
-        <v>13854.4594</v>
+        <v>14600.95</v>
       </c>
       <c r="G64" t="n">
-        <v>590690.0085295775</v>
+        <v>14.83333333333329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2981,9 +3020,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,28 +3029,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C65" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D65" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E65" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F65" t="n">
-        <v>61780.6958</v>
+        <v>7110.9831</v>
       </c>
       <c r="G65" t="n">
-        <v>590690.0085295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3022,9 +3060,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,28 +3069,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C66" t="n">
         <v>14.8</v>
       </c>
       <c r="D66" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E66" t="n">
         <v>14.8</v>
       </c>
       <c r="F66" t="n">
-        <v>4200</v>
+        <v>2751</v>
       </c>
       <c r="G66" t="n">
-        <v>590690.0085295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3063,9 +3100,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,28 +3109,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C67" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D67" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E67" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F67" t="n">
-        <v>9000</v>
+        <v>100425</v>
       </c>
       <c r="G67" t="n">
-        <v>590690.0085295775</v>
+        <v>14.86666666666663</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3104,9 +3140,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,28 +3149,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C68" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F68" t="n">
-        <v>30895.3944</v>
+        <v>3106.636</v>
       </c>
       <c r="G68" t="n">
-        <v>559794.6141295775</v>
+        <v>14.89999999999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3145,9 +3180,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,28 +3189,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C69" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F69" t="n">
-        <v>6559.957</v>
+        <v>69356.9427</v>
       </c>
       <c r="G69" t="n">
-        <v>559794.6141295775</v>
+        <v>14.96666666666663</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3186,9 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3197,28 +3229,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="D70" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E70" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>2710</v>
+        <v>230295.2844</v>
       </c>
       <c r="G70" t="n">
-        <v>562504.6141295775</v>
+        <v>15.03333333333329</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3227,9 +3260,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,28 +3269,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C71" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="D71" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E71" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F71" t="n">
-        <v>2270.321</v>
+        <v>3509.933774834437</v>
       </c>
       <c r="G71" t="n">
-        <v>562504.6141295775</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3268,9 +3300,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,28 +3309,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C72" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D72" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E72" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F72" t="n">
-        <v>16000</v>
+        <v>273840.6413251656</v>
       </c>
       <c r="G72" t="n">
-        <v>546504.6141295775</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3309,9 +3340,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3320,28 +3349,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C73" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="D73" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="E73" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="F73" t="n">
-        <v>3841.8351</v>
+        <v>1145530.5228</v>
       </c>
       <c r="G73" t="n">
-        <v>542662.7790295775</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3350,9 +3380,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,28 +3389,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C74" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D74" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E74" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F74" t="n">
-        <v>2400</v>
+        <v>29070.7798</v>
       </c>
       <c r="G74" t="n">
-        <v>545062.7790295775</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3391,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,28 +3429,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C75" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D75" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E75" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F75" t="n">
-        <v>1.8351</v>
+        <v>57890.8933</v>
       </c>
       <c r="G75" t="n">
-        <v>545062.7790295775</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3432,9 +3460,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,28 +3469,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="C76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="E76" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>2890.579</v>
       </c>
       <c r="G76" t="n">
-        <v>545162.7790295775</v>
+        <v>15.1333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3473,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,28 +3509,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="D77" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="E77" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="F77" t="n">
-        <v>53742</v>
+        <v>1238542.766294771</v>
       </c>
       <c r="G77" t="n">
-        <v>545162.7790295775</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3514,9 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,28 +3549,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C78" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="D78" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="E78" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F78" t="n">
-        <v>20000</v>
+        <v>6157.07</v>
       </c>
       <c r="G78" t="n">
-        <v>525162.7790295775</v>
+        <v>15.29999999999996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3555,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3566,28 +3589,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="C79" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="D79" t="n">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="E79" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="F79" t="n">
-        <v>47634.18</v>
+        <v>1960</v>
       </c>
       <c r="G79" t="n">
-        <v>572796.9590295776</v>
+        <v>15.36666666666663</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3596,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3607,28 +3629,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C80" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D80" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E80" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F80" t="n">
-        <v>163</v>
+        <v>31600</v>
       </c>
       <c r="G80" t="n">
-        <v>572633.9590295776</v>
+        <v>15.29999999999996</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3637,9 +3660,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3648,28 +3669,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C81" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D81" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E81" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1640.8027</v>
+        <v>9698</v>
       </c>
       <c r="G81" t="n">
-        <v>572633.9590295776</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3678,9 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,28 +3709,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C82" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="D82" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E82" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F82" t="n">
-        <v>106797.0855</v>
+        <v>40159.0433</v>
       </c>
       <c r="G82" t="n">
-        <v>679431.0445295776</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3719,9 +3740,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,28 +3749,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C83" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="D83" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E83" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F83" t="n">
-        <v>51043.9786</v>
+        <v>5268.38</v>
       </c>
       <c r="G83" t="n">
-        <v>679431.0445295776</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3760,9 +3780,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3771,28 +3789,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C84" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>100753.846</v>
+        <v>121600</v>
       </c>
       <c r="G84" t="n">
-        <v>679431.0445295776</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3801,9 +3820,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,28 +3829,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E85" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>128507.708</v>
+        <v>9109.6939</v>
       </c>
       <c r="G85" t="n">
-        <v>679431.0445295776</v>
+        <v>15.03333333333329</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3842,9 +3860,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3853,28 +3869,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E86" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>202067.2269</v>
+        <v>118250.9342</v>
       </c>
       <c r="G86" t="n">
-        <v>881498.2714295776</v>
+        <v>14.99999999999996</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3883,9 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,28 +3909,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>353.1757</v>
+        <v>169875</v>
       </c>
       <c r="G87" t="n">
-        <v>881498.2714295776</v>
+        <v>14.99999999999996</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3924,9 +3940,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,28 +3949,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C88" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D88" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E88" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F88" t="n">
-        <v>6596.1744</v>
+        <v>3290</v>
       </c>
       <c r="G88" t="n">
-        <v>881498.2714295776</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3965,9 +3980,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3976,28 +3989,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C89" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D89" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="E89" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>63000</v>
+        <v>1920.67</v>
       </c>
       <c r="G89" t="n">
-        <v>818498.2714295776</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4006,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4017,28 +4029,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C90" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D90" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E90" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F90" t="n">
-        <v>12600</v>
+        <v>1920.6672</v>
       </c>
       <c r="G90" t="n">
-        <v>818498.2714295776</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4047,9 +4060,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4058,28 +4069,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="C91" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="D91" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="E91" t="n">
-        <v>14.6</v>
+        <v>15.1</v>
       </c>
       <c r="F91" t="n">
-        <v>3952.8398</v>
+        <v>45211.6651</v>
       </c>
       <c r="G91" t="n">
-        <v>814545.4316295777</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4088,9 +4100,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,28 +4109,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C92" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D92" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E92" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F92" t="n">
-        <v>5400</v>
+        <v>8200</v>
       </c>
       <c r="G92" t="n">
-        <v>819945.4316295777</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4129,9 +4140,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4140,28 +4149,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C93" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D93" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="E93" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="F93" t="n">
-        <v>12600</v>
+        <v>1812.4515</v>
       </c>
       <c r="G93" t="n">
-        <v>819945.4316295777</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4170,9 +4180,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,28 +4189,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="C94" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="D94" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="E94" t="n">
-        <v>14.6</v>
+        <v>15.2</v>
       </c>
       <c r="F94" t="n">
-        <v>3827.9515</v>
+        <v>62154.9102</v>
       </c>
       <c r="G94" t="n">
-        <v>816117.4801295777</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4211,9 +4220,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,28 +4229,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C95" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E95" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F95" t="n">
-        <v>100</v>
+        <v>39200</v>
       </c>
       <c r="G95" t="n">
-        <v>816217.4801295777</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4252,9 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,28 +4269,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C96" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D96" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E96" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F96" t="n">
-        <v>89000</v>
+        <v>700</v>
       </c>
       <c r="G96" t="n">
-        <v>905217.4801295777</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4293,9 +4300,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,28 +4309,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C97" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D97" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E97" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F97" t="n">
-        <v>2338.8318</v>
+        <v>1000</v>
       </c>
       <c r="G97" t="n">
-        <v>902878.6483295776</v>
+        <v>15.06666666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4334,9 +4340,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4345,28 +4349,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C98" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D98" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="E98" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="F98" t="n">
-        <v>56617.4518</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>902878.6483295776</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4375,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,28 +4389,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C99" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D99" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E99" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F99" t="n">
-        <v>125292.8271</v>
+        <v>50000</v>
       </c>
       <c r="G99" t="n">
-        <v>902878.6483295776</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4416,9 +4420,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,28 +4429,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="C100" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="D100" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="E100" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F100" t="n">
-        <v>13191529.7748</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
-        <v>902878.6483295776</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4457,9 +4460,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,28 +4469,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="C101" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D101" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="E101" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="F101" t="n">
-        <v>9217158.624600001</v>
+        <v>20299.0537</v>
       </c>
       <c r="G101" t="n">
-        <v>902878.6483295776</v>
+        <v>15.13333333333329</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4498,9 +4500,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,28 +4509,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="C102" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="D102" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="E102" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="F102" t="n">
-        <v>2785.85</v>
+        <v>99800</v>
       </c>
       <c r="G102" t="n">
-        <v>902878.6483295776</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4539,9 +4540,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,539 +4549,477 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="C103" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D103" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="E103" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="F103" t="n">
-        <v>9557.663200000001</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="n">
-        <v>912436.3115295776</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="C104" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="D104" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="E104" t="n">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="F104" t="n">
-        <v>21</v>
+        <v>6778.657</v>
       </c>
       <c r="G104" t="n">
-        <v>912415.3115295776</v>
+        <v>15.23333333333329</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="C105" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D105" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="E105" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="F105" t="n">
-        <v>79</v>
+        <v>37000</v>
       </c>
       <c r="G105" t="n">
-        <v>912415.3115295776</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="C106" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="D106" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="E106" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="F106" t="n">
-        <v>14600.95</v>
+        <v>2259.5523</v>
       </c>
       <c r="G106" t="n">
-        <v>927016.2615295775</v>
+        <v>15.26666666666662</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C107" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D107" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E107" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F107" t="n">
-        <v>7110.9831</v>
+        <v>66200</v>
       </c>
       <c r="G107" t="n">
-        <v>927016.2615295775</v>
+        <v>15.23333333333329</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C108" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="D108" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E108" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="F108" t="n">
-        <v>2751</v>
+        <v>24993.49</v>
       </c>
       <c r="G108" t="n">
-        <v>924265.2615295775</v>
+        <v>15.23333333333329</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C109" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D109" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E109" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F109" t="n">
-        <v>100425</v>
+        <v>16559.2865</v>
       </c>
       <c r="G109" t="n">
-        <v>1024690.261529578</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D110" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E110" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F110" t="n">
-        <v>3106.636</v>
+        <v>59842.2491</v>
       </c>
       <c r="G110" t="n">
-        <v>1027796.897529578</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="D111" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="E111" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="F111" t="n">
-        <v>69356.9427</v>
+        <v>161239.2468</v>
       </c>
       <c r="G111" t="n">
-        <v>1027796.897529578</v>
+        <v>15.26666666666663</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D112" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E112" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F112" t="n">
-        <v>230295.2844</v>
+        <v>12200</v>
       </c>
       <c r="G112" t="n">
-        <v>1258092.181929578</v>
+        <v>15.26666666666663</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D113" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F113" t="n">
-        <v>3509.933774834437</v>
+        <v>20400</v>
       </c>
       <c r="G113" t="n">
-        <v>1258092.181929578</v>
+        <v>15.26666666666663</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
         <v>15.1</v>
       </c>
       <c r="D114" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E114" t="n">
         <v>15.1</v>
       </c>
       <c r="F114" t="n">
-        <v>273840.6413251656</v>
+        <v>99959.1393</v>
       </c>
       <c r="G114" t="n">
-        <v>1258092.181929578</v>
+        <v>15.16666666666663</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D115" t="n">
         <v>15.3</v>
       </c>
       <c r="E115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F115" t="n">
-        <v>1145530.5228</v>
+        <v>31750</v>
       </c>
       <c r="G115" t="n">
-        <v>1258092.181929578</v>
+        <v>15.19999999999996</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5101,29 +5038,24 @@
         <v>15.1</v>
       </c>
       <c r="F116" t="n">
-        <v>29070.7798</v>
+        <v>36398.0169</v>
       </c>
       <c r="G116" t="n">
-        <v>1258092.181929578</v>
+        <v>15.16666666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5142,1861 +5074,168 @@
         <v>15.1</v>
       </c>
       <c r="F117" t="n">
-        <v>57890.8933</v>
+        <v>59600</v>
       </c>
       <c r="G117" t="n">
-        <v>1258092.181929578</v>
+        <v>15.16666666666663</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F118" t="n">
-        <v>2890.579</v>
+        <v>43854.0622</v>
       </c>
       <c r="G118" t="n">
-        <v>1260982.760929578</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C119" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D119" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E119" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1238542.766294771</v>
+        <v>2030</v>
       </c>
       <c r="G119" t="n">
-        <v>2499525.527224349</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D120" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E120" t="n">
         <v>15.1</v>
       </c>
       <c r="F120" t="n">
-        <v>6157.07</v>
+        <v>2030</v>
       </c>
       <c r="G120" t="n">
-        <v>2505682.597224349</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="C121" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D121" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="E121" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="F121" t="n">
-        <v>1960</v>
+        <v>128.2781</v>
       </c>
       <c r="G121" t="n">
-        <v>2505682.597224349</v>
+        <v>15.09999999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>31600</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E123" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F123" t="n">
-        <v>9698</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>40159.0433</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5268.38</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>15</v>
-      </c>
-      <c r="C126" t="n">
-        <v>15</v>
-      </c>
-      <c r="D126" t="n">
-        <v>15</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15</v>
-      </c>
-      <c r="F126" t="n">
-        <v>121600</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>15</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15</v>
-      </c>
-      <c r="D127" t="n">
-        <v>15</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15</v>
-      </c>
-      <c r="F127" t="n">
-        <v>9109.6939</v>
-      </c>
-      <c r="G127" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>15</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15</v>
-      </c>
-      <c r="D128" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15</v>
-      </c>
-      <c r="F128" t="n">
-        <v>118250.9342</v>
-      </c>
-      <c r="G128" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>15</v>
-      </c>
-      <c r="C129" t="n">
-        <v>15</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15</v>
-      </c>
-      <c r="F129" t="n">
-        <v>169875</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E130" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F130" t="n">
-        <v>3290</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2355772.597224349</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>15</v>
-      </c>
-      <c r="D131" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>15</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1920.67</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2353851.927224349</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E132" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1920.6672</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2355772.594424349</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>45211.6651</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2355772.594424349</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15</v>
-      </c>
-      <c r="D134" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15</v>
-      </c>
-      <c r="F134" t="n">
-        <v>8200</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2347572.594424349</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1812.4515</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2349385.045924349</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>62154.9102</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2349385.045924349</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15</v>
-      </c>
-      <c r="F137" t="n">
-        <v>39200</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2310185.045924349</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F138" t="n">
-        <v>700</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2310885.045924349</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2310885.045924349</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>69.93000000000001</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2310954.975924349</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F141" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2260954.975924349</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2260954.975924349</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>20299.0537</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2281254.029624349</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F144" t="n">
-        <v>99800</v>
-      </c>
-      <c r="G144" t="n">
-        <v>2381054.029624349</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>2380054.029624349</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E146" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F146" t="n">
-        <v>6778.657</v>
-      </c>
-      <c r="G146" t="n">
-        <v>2386832.686624349</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>37000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>2349832.686624349</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E148" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2259.5523</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2352092.238924349</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>66200</v>
-      </c>
-      <c r="G149" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F150" t="n">
-        <v>24993.49</v>
-      </c>
-      <c r="G150" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>16559.2865</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F152" t="n">
-        <v>59842.2491</v>
-      </c>
-      <c r="G152" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>161239.2468</v>
-      </c>
-      <c r="G153" t="n">
-        <v>2447131.485724349</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>12200</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2434931.485724349</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1.036095890410959</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>20400</v>
-      </c>
-      <c r="G155" t="n">
-        <v>2434931.485724349</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F156" t="n">
-        <v>99959.1393</v>
-      </c>
-      <c r="G156" t="n">
-        <v>2334972.346424349</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C157" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D157" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E157" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F157" t="n">
-        <v>31750</v>
-      </c>
-      <c r="G157" t="n">
-        <v>2366722.346424349</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>36398.0169</v>
-      </c>
-      <c r="G158" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>59600</v>
-      </c>
-      <c r="G159" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>43854.0622</v>
-      </c>
-      <c r="G160" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2030</v>
-      </c>
-      <c r="G161" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2030</v>
-      </c>
-      <c r="G162" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>128.2781</v>
-      </c>
-      <c r="G163" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="C2" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="D2" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="E2" t="n">
-        <v>14.9</v>
+        <v>14.3</v>
       </c>
       <c r="F2" t="n">
-        <v>16603.65</v>
+        <v>5560.5911</v>
       </c>
       <c r="G2" t="n">
-        <v>14.89999999999996</v>
+        <v>2491.783529577489</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="C3" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E3" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F3" t="n">
-        <v>34163.4526</v>
+        <v>61589</v>
       </c>
       <c r="G3" t="n">
-        <v>14.86666666666663</v>
+        <v>64080.78352957749</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.3</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C4" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D4" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="F4" t="n">
-        <v>4297.12</v>
+        <v>31600</v>
       </c>
       <c r="G4" t="n">
-        <v>14.86666666666663</v>
+        <v>64080.78352957749</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -534,12 +538,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="K4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>14.3</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,32 +558,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="D5" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="E5" t="n">
-        <v>14.9</v>
+        <v>14.4</v>
       </c>
       <c r="F5" t="n">
-        <v>79800</v>
+        <v>31092.2746</v>
       </c>
       <c r="G5" t="n">
-        <v>14.86666666666663</v>
+        <v>64080.78352957749</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K5" t="n">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -592,74 +602,78 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D6" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E6" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F6" t="n">
-        <v>13844.9054</v>
+        <v>99800</v>
       </c>
       <c r="G6" t="n">
-        <v>14.86666666666664</v>
+        <v>163880.7835295775</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>14.4</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>176531.0956</v>
+      </c>
+      <c r="G7" t="n">
+        <v>163880.7835295775</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6357.9721</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.8333333333333</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -670,36 +684,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C8" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E8" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F8" t="n">
-        <v>42000</v>
+        <v>70083.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>14.79999999999997</v>
+        <v>233963.9230295775</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>14.4</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -712,38 +726,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C9" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D9" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E9" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F9" t="n">
-        <v>63000</v>
+        <v>67181.4042</v>
       </c>
       <c r="G9" t="n">
-        <v>14.79999999999997</v>
+        <v>166782.5188295775</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -757,35 +765,29 @@
         <v>14.7</v>
       </c>
       <c r="C10" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D10" t="n">
         <v>14.7</v>
       </c>
       <c r="E10" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3378</v>
+        <v>161153.594</v>
       </c>
       <c r="G10" t="n">
-        <v>14.76666666666664</v>
+        <v>166782.5188295775</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -796,38 +798,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E11" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F11" t="n">
-        <v>3622</v>
+        <v>15233.614</v>
       </c>
       <c r="G11" t="n">
-        <v>14.73333333333331</v>
+        <v>166782.5188295775</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -841,35 +837,29 @@
         <v>14.7</v>
       </c>
       <c r="C12" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D12" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E12" t="n">
         <v>14.7</v>
       </c>
       <c r="F12" t="n">
-        <v>96020</v>
+        <v>22600</v>
       </c>
       <c r="G12" t="n">
-        <v>14.73333333333331</v>
+        <v>189382.5188295775</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -880,38 +870,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C13" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D13" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E13" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F13" t="n">
-        <v>45400</v>
+        <v>30107.1187</v>
       </c>
       <c r="G13" t="n">
-        <v>14.76666666666664</v>
+        <v>189382.5188295775</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -922,38 +906,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D14" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E14" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F14" t="n">
-        <v>7206</v>
+        <v>8146.3</v>
       </c>
       <c r="G14" t="n">
-        <v>14.79999999999997</v>
+        <v>181236.2188295775</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -964,38 +942,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C15" t="n">
         <v>14.7</v>
       </c>
       <c r="D15" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E15" t="n">
         <v>14.7</v>
       </c>
       <c r="F15" t="n">
-        <v>69467</v>
+        <v>55800</v>
       </c>
       <c r="G15" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,38 +978,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E16" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F16" t="n">
-        <v>70600</v>
+        <v>5189.1986</v>
       </c>
       <c r="G16" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1048,38 +1014,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F17" t="n">
-        <v>399870.022</v>
+        <v>2425</v>
       </c>
       <c r="G17" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1090,38 +1050,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C18" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D18" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E18" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F18" t="n">
-        <v>815809.0134000001</v>
+        <v>24156.763</v>
       </c>
       <c r="G18" t="n">
-        <v>14.79999999999997</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1132,38 +1086,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E19" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F19" t="n">
-        <v>117638.3783</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>14.79999999999997</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1186,26 +1134,20 @@
         <v>14.7</v>
       </c>
       <c r="F20" t="n">
-        <v>37.6056</v>
+        <v>43657.0799</v>
       </c>
       <c r="G20" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1216,38 +1158,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E21" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F21" t="n">
-        <v>20600</v>
+        <v>8315.874599999999</v>
       </c>
       <c r="G21" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1258,38 +1194,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E22" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F22" t="n">
-        <v>13854.4594</v>
+        <v>8957.351699999999</v>
       </c>
       <c r="G22" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1303,35 +1233,29 @@
         <v>14.8</v>
       </c>
       <c r="C23" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D23" t="n">
         <v>14.8</v>
       </c>
       <c r="E23" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F23" t="n">
-        <v>61780.6958</v>
+        <v>22279.4184</v>
       </c>
       <c r="G23" t="n">
-        <v>14.79999999999997</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1342,38 +1266,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E24" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F24" t="n">
-        <v>4200</v>
+        <v>34321.2088</v>
       </c>
       <c r="G24" t="n">
-        <v>14.79999999999997</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1384,38 +1302,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F25" t="n">
-        <v>9000</v>
+        <v>3039.5561</v>
       </c>
       <c r="G25" t="n">
-        <v>14.79999999999997</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1438,26 +1350,20 @@
         <v>14.7</v>
       </c>
       <c r="F26" t="n">
-        <v>30895.3944</v>
+        <v>11261.5553</v>
       </c>
       <c r="G26" t="n">
-        <v>14.76666666666664</v>
+        <v>237036.2188295775</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1471,35 +1377,29 @@
         <v>14.7</v>
       </c>
       <c r="C27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D27" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E27" t="n">
         <v>14.7</v>
       </c>
       <c r="F27" t="n">
-        <v>6559.957</v>
+        <v>19814.1817</v>
       </c>
       <c r="G27" t="n">
-        <v>14.73333333333331</v>
+        <v>256850.4005295775</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1522,26 +1422,20 @@
         <v>14.8</v>
       </c>
       <c r="F28" t="n">
-        <v>2710</v>
+        <v>17000</v>
       </c>
       <c r="G28" t="n">
-        <v>14.73333333333331</v>
+        <v>256850.4005295775</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1564,26 +1458,20 @@
         <v>14.8</v>
       </c>
       <c r="F29" t="n">
-        <v>2270.321</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>14.76666666666664</v>
+        <v>256850.4005295775</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1606,26 +1494,20 @@
         <v>14.7</v>
       </c>
       <c r="F30" t="n">
-        <v>16000</v>
+        <v>6530.74</v>
       </c>
       <c r="G30" t="n">
-        <v>14.76666666666664</v>
+        <v>250319.6605295775</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1639,35 +1521,29 @@
         <v>14.7</v>
       </c>
       <c r="C31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D31" t="n">
         <v>14.7</v>
       </c>
       <c r="E31" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F31" t="n">
-        <v>3841.8351</v>
+        <v>9975</v>
       </c>
       <c r="G31" t="n">
-        <v>14.69999999999997</v>
+        <v>250319.6605295775</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1690,26 +1566,20 @@
         <v>14.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2400</v>
+        <v>24000</v>
       </c>
       <c r="G32" t="n">
-        <v>14.66666666666664</v>
+        <v>250319.6605295775</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1720,38 +1590,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C33" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D33" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E33" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1.8351</v>
+        <v>69189.3737</v>
       </c>
       <c r="G33" t="n">
-        <v>14.66666666666664</v>
+        <v>181130.2868295775</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1762,38 +1626,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C34" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D34" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E34" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>47690.2703</v>
       </c>
       <c r="G34" t="n">
-        <v>14.73333333333331</v>
+        <v>228820.5571295775</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,38 +1662,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C35" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D35" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E35" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F35" t="n">
-        <v>53742</v>
+        <v>24000</v>
       </c>
       <c r="G35" t="n">
-        <v>14.76666666666664</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1846,38 +1698,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C36" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D36" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E36" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F36" t="n">
-        <v>20000</v>
+        <v>4211.2904</v>
       </c>
       <c r="G36" t="n">
-        <v>14.76666666666664</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1888,38 +1734,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C37" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D37" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E37" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F37" t="n">
-        <v>47634.18</v>
+        <v>5953.6523</v>
       </c>
       <c r="G37" t="n">
-        <v>14.76666666666664</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1930,22 +1770,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C38" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D38" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E38" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F38" t="n">
-        <v>163</v>
+        <v>1040.1304</v>
       </c>
       <c r="G38" t="n">
-        <v>14.73333333333331</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1954,14 +1794,12 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1972,22 +1810,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C39" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D39" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E39" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F39" t="n">
-        <v>1640.8027</v>
+        <v>1652.8751</v>
       </c>
       <c r="G39" t="n">
-        <v>14.73333333333331</v>
+        <v>204820.5571295775</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1996,12 +1834,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2014,22 +1854,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="C40" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D40" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E40" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="F40" t="n">
-        <v>106797.0855</v>
+        <v>880</v>
       </c>
       <c r="G40" t="n">
-        <v>14.73333333333331</v>
+        <v>203940.5571295775</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -2038,12 +1878,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14.6</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -2056,22 +1898,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C41" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D41" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E41" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F41" t="n">
-        <v>51043.9786</v>
+        <v>77996.7684</v>
       </c>
       <c r="G41" t="n">
-        <v>14.76666666666664</v>
+        <v>281937.3255295776</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -2080,14 +1922,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2098,34 +1938,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E42" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F42" t="n">
-        <v>100753.846</v>
+        <v>5769.23</v>
       </c>
       <c r="G42" t="n">
-        <v>14.79999999999997</v>
+        <v>281937.3255295776</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M42" t="n">
@@ -2138,36 +1982,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C43" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="D43" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="E43" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F43" t="n">
-        <v>128507.708</v>
+        <v>2307.692</v>
       </c>
       <c r="G43" t="n">
-        <v>14.79999999999997</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>14.5</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2180,22 +2024,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C44" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D44" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E44" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F44" t="n">
-        <v>202067.2269</v>
+        <v>1787.6796</v>
       </c>
       <c r="G44" t="n">
-        <v>14.83333333333331</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2205,11 +2049,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2220,22 +2060,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C45" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="D45" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="E45" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F45" t="n">
-        <v>353.1757</v>
+        <v>24851.7788</v>
       </c>
       <c r="G45" t="n">
-        <v>14.86666666666664</v>
+        <v>279629.6335295776</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2245,11 +2085,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2260,22 +2096,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="C46" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D46" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E46" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="F46" t="n">
-        <v>6596.1744</v>
+        <v>12800</v>
       </c>
       <c r="G46" t="n">
-        <v>14.89999999999997</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2285,11 +2121,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2132,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C47" t="n">
         <v>14.7</v>
       </c>
       <c r="D47" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E47" t="n">
         <v>14.7</v>
       </c>
       <c r="F47" t="n">
-        <v>63000</v>
+        <v>15653.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>14.8333333333333</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2325,11 +2157,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2352,10 +2180,10 @@
         <v>14.7</v>
       </c>
       <c r="F48" t="n">
-        <v>12600</v>
+        <v>20000</v>
       </c>
       <c r="G48" t="n">
-        <v>14.76666666666664</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2365,11 +2193,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2380,22 +2204,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E49" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3952.8398</v>
+        <v>14063.6125</v>
       </c>
       <c r="G49" t="n">
-        <v>14.66666666666664</v>
+        <v>292429.6335295776</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2405,11 +2229,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2240,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E50" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F50" t="n">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="G50" t="n">
-        <v>14.66666666666663</v>
+        <v>289429.6335295776</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2445,11 +2265,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2472,10 +2288,10 @@
         <v>14.7</v>
       </c>
       <c r="F51" t="n">
-        <v>12600</v>
+        <v>1409.4062</v>
       </c>
       <c r="G51" t="n">
-        <v>14.66666666666663</v>
+        <v>290839.0397295776</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2485,11 +2301,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2500,22 +2312,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="D52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E52" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F52" t="n">
-        <v>3827.9515</v>
+        <v>2788.97</v>
       </c>
       <c r="G52" t="n">
-        <v>14.66666666666663</v>
+        <v>288050.0697295776</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2525,11 +2337,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2552,26 +2360,20 @@
         <v>14.7</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>8600</v>
       </c>
       <c r="G53" t="n">
-        <v>14.66666666666663</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2582,38 +2384,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C54" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D54" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E54" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F54" t="n">
-        <v>89000</v>
+        <v>64960</v>
       </c>
       <c r="G54" t="n">
-        <v>14.7333333333333</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2633,13 +2429,13 @@
         <v>14.7</v>
       </c>
       <c r="E55" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F55" t="n">
-        <v>2338.8318</v>
+        <v>47120.5985</v>
       </c>
       <c r="G55" t="n">
-        <v>14.76666666666664</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2649,11 +2445,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2676,10 +2468,10 @@
         <v>14.7</v>
       </c>
       <c r="F56" t="n">
-        <v>56617.4518</v>
+        <v>11609.2957</v>
       </c>
       <c r="G56" t="n">
-        <v>14.76666666666663</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2689,11 +2481,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2716,26 +2504,20 @@
         <v>14.7</v>
       </c>
       <c r="F57" t="n">
-        <v>125292.8271</v>
+        <v>11956.178</v>
       </c>
       <c r="G57" t="n">
-        <v>14.69999999999997</v>
+        <v>296650.0697295776</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2746,38 +2528,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="C58" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D58" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="E58" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F58" t="n">
-        <v>13191529.7748</v>
+        <v>6575.3424</v>
       </c>
       <c r="G58" t="n">
-        <v>14.69999999999997</v>
+        <v>290074.7273295776</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2800,26 +2576,20 @@
         <v>14.7</v>
       </c>
       <c r="F59" t="n">
-        <v>9217158.624600001</v>
+        <v>2558.5898</v>
       </c>
       <c r="G59" t="n">
-        <v>14.69999999999997</v>
+        <v>292633.3171295776</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2830,38 +2600,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E60" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F60" t="n">
-        <v>2785.85</v>
+        <v>19200</v>
       </c>
       <c r="G60" t="n">
-        <v>14.69999999999997</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2875,35 +2639,29 @@
         <v>14.8</v>
       </c>
       <c r="C61" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D61" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E61" t="n">
         <v>14.8</v>
       </c>
       <c r="F61" t="n">
-        <v>9557.663200000001</v>
+        <v>48827.3729</v>
       </c>
       <c r="G61" t="n">
-        <v>14.76666666666663</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +2684,10 @@
         <v>14.8</v>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>24000</v>
       </c>
       <c r="G62" t="n">
-        <v>14.79999999999996</v>
+        <v>311833.3171295776</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2939,11 +2697,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2957,35 +2711,29 @@
         <v>14.8</v>
       </c>
       <c r="C63" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D63" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E63" t="n">
         <v>14.8</v>
       </c>
       <c r="F63" t="n">
-        <v>79</v>
+        <v>114125.3614</v>
       </c>
       <c r="G63" t="n">
-        <v>14.83333333333329</v>
+        <v>425958.6785295776</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3008,10 +2756,10 @@
         <v>14.9</v>
       </c>
       <c r="F64" t="n">
-        <v>14600.95</v>
+        <v>10000</v>
       </c>
       <c r="G64" t="n">
-        <v>14.83333333333329</v>
+        <v>425958.6785295776</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3021,11 +2769,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3039,19 +2783,19 @@
         <v>14.9</v>
       </c>
       <c r="C65" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
         <v>14.9</v>
       </c>
       <c r="F65" t="n">
-        <v>7110.9831</v>
+        <v>95105.17359999999</v>
       </c>
       <c r="G65" t="n">
-        <v>14.86666666666663</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3061,11 +2805,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3076,22 +2816,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E66" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F66" t="n">
-        <v>2751</v>
+        <v>20800</v>
       </c>
       <c r="G66" t="n">
-        <v>14.86666666666663</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3101,11 +2841,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3116,22 +2852,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D67" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F67" t="n">
-        <v>100425</v>
+        <v>20600</v>
       </c>
       <c r="G67" t="n">
-        <v>14.86666666666663</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3141,11 +2877,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3156,7 +2888,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
         <v>15</v>
@@ -3165,13 +2897,13 @@
         <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F68" t="n">
-        <v>3106.636</v>
+        <v>162800</v>
       </c>
       <c r="G68" t="n">
-        <v>14.89999999999996</v>
+        <v>521063.8521295776</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3181,11 +2913,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3199,19 +2927,19 @@
         <v>14.9</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E69" t="n">
         <v>14.9</v>
       </c>
       <c r="F69" t="n">
-        <v>69356.9427</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>14.96666666666663</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3221,11 +2949,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3236,22 +2960,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C70" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D70" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E70" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F70" t="n">
-        <v>230295.2844</v>
+        <v>135133.2078</v>
       </c>
       <c r="G70" t="n">
-        <v>15.03333333333329</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3261,11 +2985,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3276,22 +2996,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C71" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D71" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E71" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F71" t="n">
-        <v>3509.933774834437</v>
+        <v>16737.091</v>
       </c>
       <c r="G71" t="n">
-        <v>15.06666666666663</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3301,11 +3021,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3316,22 +3032,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C72" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D72" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E72" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F72" t="n">
-        <v>273840.6413251656</v>
+        <v>101800</v>
       </c>
       <c r="G72" t="n">
-        <v>15.09999999999996</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3341,11 +3057,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3068,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C73" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D73" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E73" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F73" t="n">
-        <v>1145530.5228</v>
+        <v>16603.65</v>
       </c>
       <c r="G73" t="n">
-        <v>15.09999999999996</v>
+        <v>520063.8521295776</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3381,11 +3093,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3396,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C74" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D74" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E74" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F74" t="n">
-        <v>29070.7798</v>
+        <v>34163.4526</v>
       </c>
       <c r="G74" t="n">
-        <v>15.09999999999996</v>
+        <v>485900.3995295776</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3421,11 +3129,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3436,22 +3140,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C75" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D75" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E75" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F75" t="n">
-        <v>57890.8933</v>
+        <v>4297.12</v>
       </c>
       <c r="G75" t="n">
-        <v>15.09999999999996</v>
+        <v>490197.5195295776</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3461,11 +3165,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3476,22 +3176,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="C76" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D76" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="E76" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="F76" t="n">
-        <v>2890.579</v>
+        <v>79800</v>
       </c>
       <c r="G76" t="n">
-        <v>15.1333333333333</v>
+        <v>490197.5195295776</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3501,11 +3201,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3212,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C77" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D77" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="E77" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F77" t="n">
-        <v>1238542.766294771</v>
+        <v>13844.9054</v>
       </c>
       <c r="G77" t="n">
-        <v>15.19999999999996</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3541,11 +3237,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3556,22 +3248,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C78" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D78" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="E78" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F78" t="n">
-        <v>6157.07</v>
+        <v>6357.9721</v>
       </c>
       <c r="G78" t="n">
-        <v>15.29999999999996</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3581,11 +3273,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3596,22 +3284,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C79" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D79" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="E79" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="F79" t="n">
-        <v>1960</v>
+        <v>42000</v>
       </c>
       <c r="G79" t="n">
-        <v>15.36666666666663</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3621,11 +3309,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3636,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C80" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D80" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E80" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F80" t="n">
-        <v>31600</v>
+        <v>63000</v>
       </c>
       <c r="G80" t="n">
-        <v>15.29999999999996</v>
+        <v>476352.6141295776</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3661,11 +3345,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3676,22 +3356,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C81" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D81" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E81" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F81" t="n">
-        <v>9698</v>
+        <v>3378</v>
       </c>
       <c r="G81" t="n">
-        <v>15.19999999999996</v>
+        <v>472974.6141295776</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3701,11 +3381,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3716,22 +3392,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C82" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D82" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E82" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F82" t="n">
-        <v>40159.0433</v>
+        <v>3622</v>
       </c>
       <c r="G82" t="n">
-        <v>15.09999999999996</v>
+        <v>472974.6141295776</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3741,11 +3417,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3756,22 +3428,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C83" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D83" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E83" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F83" t="n">
-        <v>5268.38</v>
+        <v>96020</v>
       </c>
       <c r="G83" t="n">
-        <v>15.09999999999996</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3781,11 +3453,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3796,22 +3464,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F84" t="n">
-        <v>121600</v>
+        <v>45400</v>
       </c>
       <c r="G84" t="n">
-        <v>15.06666666666663</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3821,11 +3489,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3836,22 +3500,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F85" t="n">
-        <v>9109.6939</v>
+        <v>7206</v>
       </c>
       <c r="G85" t="n">
-        <v>15.03333333333329</v>
+        <v>568994.6141295775</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3861,11 +3525,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +3536,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="D86" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F86" t="n">
-        <v>118250.9342</v>
+        <v>69467</v>
       </c>
       <c r="G86" t="n">
-        <v>14.99999999999996</v>
+        <v>499527.6141295775</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3901,11 +3561,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3572,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D87" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F87" t="n">
-        <v>169875</v>
+        <v>70600</v>
       </c>
       <c r="G87" t="n">
-        <v>14.99999999999996</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3941,11 +3597,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3956,22 +3608,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C88" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D88" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E88" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F88" t="n">
-        <v>3290</v>
+        <v>399870.022</v>
       </c>
       <c r="G88" t="n">
-        <v>15.06666666666663</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3981,11 +3633,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3996,22 +3644,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C89" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D89" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F89" t="n">
-        <v>1920.67</v>
+        <v>815809.0134000001</v>
       </c>
       <c r="G89" t="n">
-        <v>15.06666666666663</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4021,11 +3669,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4036,22 +3680,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C90" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D90" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E90" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F90" t="n">
-        <v>1920.6672</v>
+        <v>117638.3783</v>
       </c>
       <c r="G90" t="n">
-        <v>15.09999999999996</v>
+        <v>570127.6141295775</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4061,11 +3705,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4076,22 +3716,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C91" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D91" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E91" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F91" t="n">
-        <v>45211.6651</v>
+        <v>37.6056</v>
       </c>
       <c r="G91" t="n">
-        <v>15.06666666666663</v>
+        <v>570090.0085295775</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4101,11 +3741,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4116,22 +3752,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C92" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D92" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F92" t="n">
-        <v>8200</v>
+        <v>20600</v>
       </c>
       <c r="G92" t="n">
-        <v>15.06666666666663</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4141,11 +3777,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4156,22 +3788,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C93" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D93" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E93" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1812.4515</v>
+        <v>13854.4594</v>
       </c>
       <c r="G93" t="n">
-        <v>15.09999999999996</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4181,11 +3813,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +3824,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C94" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D94" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E94" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F94" t="n">
-        <v>62154.9102</v>
+        <v>61780.6958</v>
       </c>
       <c r="G94" t="n">
-        <v>15.13333333333329</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4221,11 +3849,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +3860,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D95" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F95" t="n">
-        <v>39200</v>
+        <v>4200</v>
       </c>
       <c r="G95" t="n">
-        <v>15.13333333333329</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4261,11 +3885,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4276,22 +3896,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E96" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F96" t="n">
-        <v>700</v>
+        <v>9000</v>
       </c>
       <c r="G96" t="n">
-        <v>15.09999999999996</v>
+        <v>590690.0085295775</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4301,11 +3921,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4316,22 +3932,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C97" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D97" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E97" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F97" t="n">
-        <v>1000</v>
+        <v>30895.3944</v>
       </c>
       <c r="G97" t="n">
-        <v>15.06666666666663</v>
+        <v>559794.6141295775</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4341,11 +3957,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4356,22 +3968,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C98" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D98" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E98" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F98" t="n">
-        <v>69.93000000000001</v>
+        <v>6559.957</v>
       </c>
       <c r="G98" t="n">
-        <v>15.13333333333329</v>
+        <v>559794.6141295775</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4381,11 +3993,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4396,22 +4004,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C99" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D99" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E99" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F99" t="n">
-        <v>50000</v>
+        <v>2710</v>
       </c>
       <c r="G99" t="n">
-        <v>15.13333333333329</v>
+        <v>562504.6141295775</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4421,11 +4029,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4436,22 +4040,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C100" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D100" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E100" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>2270.321</v>
       </c>
       <c r="G100" t="n">
-        <v>15.13333333333329</v>
+        <v>562504.6141295775</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4461,11 +4065,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4076,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E101" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F101" t="n">
-        <v>20299.0537</v>
+        <v>16000</v>
       </c>
       <c r="G101" t="n">
-        <v>15.13333333333329</v>
+        <v>546504.6141295775</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4501,11 +4101,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +4112,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C102" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="D102" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E102" t="n">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="F102" t="n">
-        <v>99800</v>
+        <v>3841.8351</v>
       </c>
       <c r="G102" t="n">
-        <v>15.19999999999996</v>
+        <v>542662.7790295775</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4541,11 +4137,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4556,37 +4148,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C103" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D103" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E103" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G103" t="n">
-        <v>15.19999999999996</v>
+        <v>545062.7790295775</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
       <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -4594,28 +4184,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C104" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="D104" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="E104" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="F104" t="n">
-        <v>6778.657</v>
+        <v>1.8351</v>
       </c>
       <c r="G104" t="n">
-        <v>15.23333333333329</v>
+        <v>545062.7790295775</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4630,28 +4220,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D105" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E105" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F105" t="n">
-        <v>37000</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>15.19999999999996</v>
+        <v>545162.7790295775</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4666,28 +4256,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="C106" t="n">
-        <v>15.3</v>
+        <v>14.8</v>
       </c>
       <c r="D106" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E106" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="F106" t="n">
-        <v>2259.5523</v>
+        <v>53742</v>
       </c>
       <c r="G106" t="n">
-        <v>15.26666666666662</v>
+        <v>545162.7790295775</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4702,28 +4292,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C107" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D107" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E107" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F107" t="n">
-        <v>66200</v>
+        <v>20000</v>
       </c>
       <c r="G107" t="n">
-        <v>15.23333333333329</v>
+        <v>525162.7790295775</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4738,28 +4328,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C108" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D108" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F108" t="n">
-        <v>24993.49</v>
+        <v>47634.18</v>
       </c>
       <c r="G108" t="n">
-        <v>15.23333333333329</v>
+        <v>572796.9590295776</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4774,28 +4364,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C109" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D109" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E109" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F109" t="n">
-        <v>16559.2865</v>
+        <v>163</v>
       </c>
       <c r="G109" t="n">
-        <v>15.19999999999996</v>
+        <v>572633.9590295776</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4810,28 +4400,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="C110" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D110" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E110" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="F110" t="n">
-        <v>59842.2491</v>
+        <v>1640.8027</v>
       </c>
       <c r="G110" t="n">
-        <v>15.19999999999996</v>
+        <v>572633.9590295776</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4846,28 +4436,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C111" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="D111" t="n">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="E111" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F111" t="n">
-        <v>161239.2468</v>
+        <v>106797.0855</v>
       </c>
       <c r="G111" t="n">
-        <v>15.26666666666663</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4882,28 +4472,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C112" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D112" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E112" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F112" t="n">
-        <v>12200</v>
+        <v>51043.9786</v>
       </c>
       <c r="G112" t="n">
-        <v>15.26666666666663</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4918,28 +4508,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C113" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="D113" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E113" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="F113" t="n">
-        <v>20400</v>
+        <v>100753.846</v>
       </c>
       <c r="G113" t="n">
-        <v>15.26666666666663</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4954,28 +4544,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="C114" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="D114" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="E114" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="F114" t="n">
-        <v>99959.1393</v>
+        <v>128507.708</v>
       </c>
       <c r="G114" t="n">
-        <v>15.16666666666663</v>
+        <v>679431.0445295776</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4990,28 +4580,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="C115" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D115" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="E115" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="F115" t="n">
-        <v>31750</v>
+        <v>202067.2269</v>
       </c>
       <c r="G115" t="n">
-        <v>15.19999999999996</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5026,28 +4616,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C116" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D116" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E116" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F116" t="n">
-        <v>36398.0169</v>
+        <v>353.1757</v>
       </c>
       <c r="G116" t="n">
-        <v>15.16666666666663</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5062,28 +4652,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C117" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D117" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E117" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F117" t="n">
-        <v>59600</v>
+        <v>6596.1744</v>
       </c>
       <c r="G117" t="n">
-        <v>15.16666666666663</v>
+        <v>881498.2714295776</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5098,28 +4688,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="C118" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D118" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="E118" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F118" t="n">
-        <v>43854.0622</v>
+        <v>63000</v>
       </c>
       <c r="G118" t="n">
-        <v>15.09999999999996</v>
+        <v>818498.2714295776</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5134,28 +4724,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C119" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D119" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E119" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F119" t="n">
-        <v>2030</v>
+        <v>12600</v>
       </c>
       <c r="G119" t="n">
-        <v>15.09999999999996</v>
+        <v>818498.2714295776</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5170,28 +4760,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="C120" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="D120" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="E120" t="n">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="F120" t="n">
-        <v>2030</v>
+        <v>3952.8398</v>
       </c>
       <c r="G120" t="n">
-        <v>15.09999999999996</v>
+        <v>814545.4316295777</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5206,28 +4796,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="D121" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="F121" t="n">
-        <v>128.2781</v>
+        <v>5400</v>
       </c>
       <c r="G121" t="n">
-        <v>15.09999999999996</v>
+        <v>819945.4316295777</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5237,6 +4827,2562 @@
       </c>
       <c r="N121" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>12600</v>
+      </c>
+      <c r="G122" t="n">
+        <v>819945.4316295777</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3827.9515</v>
+      </c>
+      <c r="G123" t="n">
+        <v>816117.4801295777</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>100</v>
+      </c>
+      <c r="G124" t="n">
+        <v>816217.4801295777</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>89000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>905217.4801295777</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2338.8318</v>
+      </c>
+      <c r="G126" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>56617.4518</v>
+      </c>
+      <c r="G127" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>125292.8271</v>
+      </c>
+      <c r="G128" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>13191529.7748</v>
+      </c>
+      <c r="G129" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9217158.624600001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2785.85</v>
+      </c>
+      <c r="G131" t="n">
+        <v>902878.6483295776</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9557.663200000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>912436.3115295776</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21</v>
+      </c>
+      <c r="G133" t="n">
+        <v>912415.3115295776</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>79</v>
+      </c>
+      <c r="G134" t="n">
+        <v>912415.3115295776</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>14600.95</v>
+      </c>
+      <c r="G135" t="n">
+        <v>927016.2615295775</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7110.9831</v>
+      </c>
+      <c r="G136" t="n">
+        <v>927016.2615295775</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C137" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2751</v>
+      </c>
+      <c r="G137" t="n">
+        <v>924265.2615295775</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>100425</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1024690.261529578</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3106.636</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1027796.897529578</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15</v>
+      </c>
+      <c r="E140" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>69356.9427</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1027796.897529578</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>230295.2844</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3509.933774834437</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>273840.6413251656</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1145530.5228</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>29070.7798</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>57890.8933</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1258092.181929578</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2890.579</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1260982.760929578</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1238542.766294771</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2499525.527224349</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6157.07</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2505682.597224349</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1960</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2505682.597224349</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>31600</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2474082.597224349</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>9698</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2474082.597224349</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>40159.0433</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2474082.597224349</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5268.38</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2474082.597224349</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15</v>
+      </c>
+      <c r="F155" t="n">
+        <v>121600</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2352482.597224349</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9109.6939</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2352482.597224349</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15</v>
+      </c>
+      <c r="F157" t="n">
+        <v>118250.9342</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2352482.597224349</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15</v>
+      </c>
+      <c r="F158" t="n">
+        <v>169875</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2352482.597224349</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3290</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2355772.597224349</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1920.67</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2353851.927224349</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1920.6672</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2355772.594424349</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>45211.6651</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2355772.594424349</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2347572.594424349</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1812.4515</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2349385.045924349</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>62154.9102</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2349385.045924349</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15</v>
+      </c>
+      <c r="F166" t="n">
+        <v>39200</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2310185.045924349</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>700</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2310885.045924349</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2310885.045924349</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>69.93000000000001</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2310954.975924349</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2260954.975924349</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2260954.975924349</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20299.0537</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2281254.029624349</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>99800</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2381054.029624349</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2380054.029624349</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>6778.657</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2386832.686624349</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>37000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2349832.686624349</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2259.5523</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2352092.238924349</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>66200</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>24993.49</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>16559.2865</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>59842.2491</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2285892.238924349</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>161239.2468</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2447131.485724349</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D183" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E183" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12200</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2434931.485724349</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>20400</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2434931.485724349</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>99959.1393</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2334972.346424349</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E186" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>31750</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2366722.346424349</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>36398.0169</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>59600</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E189" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>43854.0622</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E191" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>128.2781</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2330324.329524349</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2491.783529577489</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="J3" t="n">
         <v>14.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K4" t="n">
         <v>14.3</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K5" t="n">
         <v>14.3</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="J6" t="n">
         <v>14.4</v>
       </c>
-      <c r="K6" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,23 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J7" t="n">
         <v>14.4</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +681,23 @@
         <v>233963.9230295775</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>14.4</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,16 +724,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,16 +757,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -816,18 +788,15 @@
         <v>166782.5188295775</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,18 +821,15 @@
         <v>189382.5188295775</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -888,18 +854,15 @@
         <v>189382.5188295775</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -926,16 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -960,18 +920,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,18 +953,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,18 +986,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1068,18 +1019,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1104,18 +1052,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1140,18 +1085,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1176,18 +1118,15 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1214,16 +1153,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1250,16 +1186,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,16 +1219,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1322,16 +1252,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1358,16 +1285,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,16 +1318,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1430,16 +1351,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1466,16 +1384,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1502,16 +1417,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,16 +1450,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1574,16 +1483,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1610,16 +1516,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,18 +1547,19 @@
         <v>228820.5571295775</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1682,16 +1586,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,16 +1625,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1752,18 +1662,19 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,22 +1699,23 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J38" t="n">
         <v>14.6</v>
       </c>
-      <c r="K38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1828,26 +1740,21 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>14.6</v>
       </c>
-      <c r="K39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1872,26 +1779,15 @@
         <v>203940.5571295775</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1916,22 +1812,15 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1956,26 +1845,15 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2002,22 +1880,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2044,16 +1913,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2080,16 +1946,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2114,18 +1977,21 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2152,16 +2018,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2188,16 +2055,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2224,16 +2092,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2260,16 +2129,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2296,16 +2166,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2332,16 +2203,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2368,16 +2240,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2404,16 +2277,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2440,16 +2314,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2476,16 +2351,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2512,16 +2388,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2548,16 +2425,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2584,16 +2462,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2620,16 +2499,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2656,16 +2536,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2692,16 +2573,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2728,16 +2610,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2764,16 +2647,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2800,16 +2684,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2836,16 +2721,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2870,18 +2756,17 @@
         <v>521063.8521295776</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2906,18 +2791,15 @@
         <v>521063.8521295776</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2942,18 +2824,15 @@
         <v>520063.8521295776</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2980,16 +2859,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3016,16 +2892,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3052,16 +2925,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3088,16 +2958,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,16 +2991,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3160,16 +3024,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3196,16 +3057,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3232,16 +3090,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,16 +3123,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3304,16 +3156,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3340,16 +3189,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3376,16 +3222,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,16 +3255,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3448,16 +3288,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,16 +3321,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3520,16 +3354,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3556,16 +3387,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3592,16 +3420,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3628,16 +3453,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3664,16 +3486,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3700,16 +3519,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3736,16 +3552,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3772,16 +3585,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3808,16 +3618,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,16 +3651,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3880,16 +3684,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3916,16 +3717,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3952,16 +3750,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3988,16 +3783,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4024,16 +3816,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4060,16 +3849,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4096,16 +3882,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4132,16 +3915,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4168,16 +3948,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4204,16 +3981,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4240,16 +4014,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4276,16 +4047,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4312,16 +4080,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4348,16 +4113,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4384,16 +4146,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4420,16 +4179,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4456,16 +4212,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4492,16 +4245,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4528,16 +4278,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4564,16 +4311,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4600,16 +4344,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4636,16 +4377,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4672,16 +4410,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4708,16 +4443,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4744,16 +4476,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4780,16 +4509,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4816,16 +4542,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4852,16 +4575,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4888,16 +4608,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4924,16 +4641,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4960,16 +4674,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4996,16 +4707,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5032,16 +4740,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5068,16 +4773,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5104,16 +4806,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5140,16 +4839,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5176,16 +4872,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5212,16 +4905,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5248,16 +4938,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5284,16 +4971,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5320,16 +5004,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5356,16 +5037,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5392,16 +5070,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5428,16 +5103,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5464,16 +5136,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5500,16 +5169,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5536,16 +5202,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5572,16 +5235,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5608,16 +5268,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5644,16 +5301,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5680,16 +5334,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5716,16 +5367,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5752,16 +5400,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5788,16 +5433,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5824,16 +5466,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5858,18 +5497,15 @@
         <v>2505682.597224349</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5896,16 +5532,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5930,18 +5563,15 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5966,18 +5596,15 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6002,18 +5629,15 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6038,18 +5662,15 @@
         <v>2352482.597224349</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6076,16 +5697,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6112,16 +5730,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6148,16 +5763,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6184,16 +5796,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6220,16 +5829,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6254,18 +5860,15 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6290,18 +5893,15 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6326,18 +5926,15 @@
         <v>2347572.594424349</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6362,18 +5959,15 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6398,18 +5992,15 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6436,16 +6027,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6472,16 +6060,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6508,16 +6093,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6544,16 +6126,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6580,16 +6159,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6616,16 +6192,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6652,16 +6225,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6688,16 +6258,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6724,16 +6291,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6760,16 +6324,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6796,16 +6357,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6832,16 +6390,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6868,16 +6423,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6904,16 +6456,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6940,16 +6489,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6976,16 +6522,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7012,16 +6555,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7048,16 +6588,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7082,18 +6619,15 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7118,18 +6652,15 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7154,18 +6685,15 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7190,18 +6718,15 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7226,18 +6751,15 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7262,18 +6784,15 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7298,18 +6817,15 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7336,16 +6852,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7372,18 +6885,15 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2491.783529577489</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>14.3</v>
@@ -521,7 +521,7 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>14.4</v>
@@ -562,7 +562,7 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>14.4</v>
@@ -603,7 +603,7 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.4</v>
@@ -640,7 +640,7 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>14.5</v>
@@ -681,11 +681,9 @@
         <v>233963.9230295775</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>14.4</v>
       </c>
@@ -788,7 +786,7 @@
         <v>166782.5188295775</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -821,7 +819,7 @@
         <v>189382.5188295775</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -854,7 +852,7 @@
         <v>189382.5188295775</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -920,7 +918,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -953,7 +951,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -986,7 +984,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1019,7 +1017,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1052,7 +1050,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1085,7 +1083,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1118,7 +1116,7 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1250,10 +1248,14 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1283,11 +1285,19 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1326,19 @@
         <v>256850.4005295775</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1367,19 @@
         <v>256850.4005295775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1408,19 @@
         <v>256850.4005295775</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1449,19 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1448,11 +1490,19 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1531,19 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1572,19 @@
         <v>181130.2868295775</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1547,15 +1613,19 @@
         <v>228820.5571295775</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>14.6</v>
       </c>
       <c r="J34" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1584,15 +1654,17 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J35" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1623,15 +1695,17 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J36" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1662,15 +1736,19 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>14.6</v>
       </c>
       <c r="J37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>14.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1699,17 +1777,17 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>14.6</v>
       </c>
       <c r="J38" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1740,15 +1818,17 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J39" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1779,11 +1859,19 @@
         <v>203940.5571295775</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1812,11 +1900,19 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1845,11 +1941,19 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1878,11 +1982,19 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1911,11 +2023,19 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1944,11 +2064,19 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1977,15 +2105,17 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>14.6</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -2016,10 +2146,14 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,10 +2187,14 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2090,10 +2228,14 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,10 +2269,14 @@
         <v>289429.6335295776</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,10 +2310,14 @@
         <v>290839.0397295776</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2201,10 +2351,14 @@
         <v>288050.0697295776</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,10 +2392,14 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,10 +2433,14 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2315,7 +2477,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,7 +2516,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,7 +2555,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2426,7 +2594,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2463,7 +2633,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,7 +2672,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,7 +2711,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,7 +2750,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,7 +2789,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,7 +2828,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,7 +2867,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,7 +2906,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2756,16 +2942,20 @@
         <v>521063.8521295776</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2791,11 +2981,17 @@
         <v>521063.8521295776</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2824,11 +3020,17 @@
         <v>520063.8521295776</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2860,8 +3062,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2893,8 +3101,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2926,8 +3140,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2959,8 +3179,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2992,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3025,8 +3257,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3058,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3091,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3124,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3157,8 +3413,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3190,8 +3452,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3223,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3256,8 +3530,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3289,8 +3569,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3322,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3355,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3388,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3421,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3454,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3487,8 +3803,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3520,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3553,8 +3881,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3586,8 +3920,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3619,8 +3959,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3652,8 +3998,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3685,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3718,8 +4076,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3751,8 +4115,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3784,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +4193,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3850,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3883,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3916,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3949,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3982,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4015,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4048,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4081,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4114,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4147,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4180,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4213,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4246,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4279,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4312,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4345,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4378,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4411,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4444,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4477,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4510,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4543,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4576,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4609,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4642,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4675,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4708,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4741,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4774,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4807,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4840,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4873,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4906,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4972,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5005,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5038,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5071,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5104,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5137,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5170,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5203,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5236,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5269,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5302,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5335,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5368,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5401,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5434,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5467,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5497,11 +6179,17 @@
         <v>2505682.597224349</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5533,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +6257,17 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +6296,17 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5629,13 +6335,19 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>1.022210884353742</v>
       </c>
       <c r="M154" t="inlineStr"/>
     </row>
@@ -5662,7 +6374,7 @@
         <v>2352482.597224349</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5827,7 +6539,7 @@
         <v>2353851.927224349</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5860,7 +6572,7 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5893,7 +6605,7 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5926,7 +6638,7 @@
         <v>2347572.594424349</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5959,7 +6671,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5992,7 +6704,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6025,7 +6737,7 @@
         <v>2310185.045924349</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6058,7 +6770,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6091,7 +6803,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6124,7 +6836,7 @@
         <v>2310954.975924349</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6157,7 +6869,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6190,7 +6902,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6223,7 +6935,7 @@
         <v>2281254.029624349</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6256,7 +6968,7 @@
         <v>2381054.029624349</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6289,7 +7001,7 @@
         <v>2380054.029624349</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6322,7 +7034,7 @@
         <v>2386832.686624349</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6355,7 +7067,7 @@
         <v>2349832.686624349</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6388,7 +7100,7 @@
         <v>2352092.238924349</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6421,7 +7133,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6619,7 +7331,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6652,7 +7364,7 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6685,7 +7397,7 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6718,7 +7430,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6751,7 +7463,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6784,7 +7496,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6817,7 +7529,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6850,7 +7562,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6883,7 +7595,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6894,6 +7606,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1248,14 +1248,10 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>14.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1285,1401 +1281,1143 @@
         <v>237036.2188295775</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>19814.1817</v>
+      </c>
+      <c r="G27" t="n">
+        <v>256850.4005295775</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>17000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>256850.4005295775</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>256850.4005295775</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6530.74</v>
+      </c>
+      <c r="G30" t="n">
+        <v>250319.6605295775</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9975</v>
+      </c>
+      <c r="G31" t="n">
+        <v>250319.6605295775</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E32" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>250319.6605295775</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>69189.3737</v>
+      </c>
+      <c r="G33" t="n">
+        <v>181130.2868295775</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F34" t="n">
+        <v>47690.2703</v>
+      </c>
+      <c r="G34" t="n">
+        <v>228820.5571295775</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>24000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>204820.5571295775</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4211.2904</v>
+      </c>
+      <c r="G36" t="n">
+        <v>204820.5571295775</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5953.6523</v>
+      </c>
+      <c r="G37" t="n">
+        <v>204820.5571295775</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1040.1304</v>
+      </c>
+      <c r="G38" t="n">
+        <v>204820.5571295775</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1652.8751</v>
+      </c>
+      <c r="G39" t="n">
+        <v>204820.5571295775</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>880</v>
+      </c>
+      <c r="G40" t="n">
+        <v>203940.5571295775</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C41" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>77996.7684</v>
+      </c>
+      <c r="G41" t="n">
+        <v>281937.3255295776</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5769.23</v>
+      </c>
+      <c r="G42" t="n">
+        <v>281937.3255295776</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2307.692</v>
+      </c>
+      <c r="G43" t="n">
+        <v>279629.6335295776</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1787.6796</v>
+      </c>
+      <c r="G44" t="n">
+        <v>279629.6335295776</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>24851.7788</v>
+      </c>
+      <c r="G45" t="n">
+        <v>279629.6335295776</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C46" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12800</v>
+      </c>
+      <c r="G46" t="n">
+        <v>292429.6335295776</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15653.9999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>292429.6335295776</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>292429.6335295776</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E49" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14063.6125</v>
+      </c>
+      <c r="G49" t="n">
+        <v>292429.6335295776</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>289429.6335295776</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E51" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1409.4062</v>
+      </c>
+      <c r="G51" t="n">
+        <v>290839.0397295776</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2788.97</v>
+      </c>
+      <c r="G52" t="n">
+        <v>288050.0697295776</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F53" t="n">
+        <v>8600</v>
+      </c>
+      <c r="G53" t="n">
+        <v>296650.0697295776</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>64960</v>
+      </c>
+      <c r="G54" t="n">
+        <v>296650.0697295776</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C55" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>47120.5985</v>
+      </c>
+      <c r="G55" t="n">
+        <v>296650.0697295776</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>11609.2957</v>
+      </c>
+      <c r="G56" t="n">
+        <v>296650.0697295776</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E57" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>11956.178</v>
+      </c>
+      <c r="G57" t="n">
+        <v>296650.0697295776</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>6575.3424</v>
+      </c>
+      <c r="G58" t="n">
+        <v>290074.7273295776</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2558.5898</v>
+      </c>
+      <c r="G59" t="n">
+        <v>292633.3171295776</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>19200</v>
+      </c>
+      <c r="G60" t="n">
+        <v>311833.3171295776</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>19814.1817</v>
-      </c>
-      <c r="G27" t="n">
-        <v>256850.4005295775</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F28" t="n">
-        <v>17000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>256850.4005295775</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>256850.4005295775</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>6530.74</v>
-      </c>
-      <c r="G30" t="n">
-        <v>250319.6605295775</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>9975</v>
-      </c>
-      <c r="G31" t="n">
-        <v>250319.6605295775</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G32" t="n">
-        <v>250319.6605295775</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C33" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D33" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>69189.3737</v>
-      </c>
-      <c r="G33" t="n">
-        <v>181130.2868295775</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>47690.2703</v>
-      </c>
-      <c r="G34" t="n">
-        <v>228820.5571295775</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J34" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C35" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G35" t="n">
-        <v>204820.5571295775</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4211.2904</v>
-      </c>
-      <c r="G36" t="n">
-        <v>204820.5571295775</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5953.6523</v>
-      </c>
-      <c r="G37" t="n">
-        <v>204820.5571295775</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1040.1304</v>
-      </c>
-      <c r="G38" t="n">
-        <v>204820.5571295775</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1652.8751</v>
-      </c>
-      <c r="G39" t="n">
-        <v>204820.5571295775</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>880</v>
-      </c>
-      <c r="G40" t="n">
-        <v>203940.5571295775</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C41" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D41" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E41" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F41" t="n">
-        <v>77996.7684</v>
-      </c>
-      <c r="G41" t="n">
-        <v>281937.3255295776</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5769.23</v>
-      </c>
-      <c r="G42" t="n">
-        <v>281937.3255295776</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E43" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F43" t="n">
-        <v>2307.692</v>
-      </c>
-      <c r="G43" t="n">
-        <v>279629.6335295776</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1787.6796</v>
-      </c>
-      <c r="G44" t="n">
-        <v>279629.6335295776</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C45" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D45" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E45" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F45" t="n">
-        <v>24851.7788</v>
-      </c>
-      <c r="G45" t="n">
-        <v>279629.6335295776</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>12800</v>
-      </c>
-      <c r="G46" t="n">
-        <v>292429.6335295776</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>15653.9999</v>
-      </c>
-      <c r="G47" t="n">
-        <v>292429.6335295776</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G48" t="n">
-        <v>292429.6335295776</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F49" t="n">
-        <v>14063.6125</v>
-      </c>
-      <c r="G49" t="n">
-        <v>292429.6335295776</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>289429.6335295776</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1409.4062</v>
-      </c>
-      <c r="G51" t="n">
-        <v>290839.0397295776</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2788.97</v>
-      </c>
-      <c r="G52" t="n">
-        <v>288050.0697295776</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F53" t="n">
-        <v>8600</v>
-      </c>
-      <c r="G53" t="n">
-        <v>296650.0697295776</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F54" t="n">
-        <v>64960</v>
-      </c>
-      <c r="G54" t="n">
-        <v>296650.0697295776</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F55" t="n">
-        <v>47120.5985</v>
-      </c>
-      <c r="G55" t="n">
-        <v>296650.0697295776</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>11609.2957</v>
-      </c>
-      <c r="G56" t="n">
-        <v>296650.0697295776</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F57" t="n">
-        <v>11956.178</v>
-      </c>
-      <c r="G57" t="n">
-        <v>296650.0697295776</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E58" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6575.3424</v>
-      </c>
-      <c r="G58" t="n">
-        <v>290074.7273295776</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2558.5898</v>
-      </c>
-      <c r="G59" t="n">
-        <v>292633.3171295776</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>19200</v>
-      </c>
-      <c r="G60" t="n">
-        <v>311833.3171295776</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2712,11 +2450,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2750,14 +2488,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2789,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2828,14 +2554,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2867,14 +2587,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2906,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2945,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2984,14 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3023,14 +2719,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3062,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3101,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3140,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3179,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3218,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3257,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3296,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3335,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3374,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3413,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3452,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3491,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3530,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3569,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3608,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3647,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3686,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3725,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3764,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3803,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3842,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3881,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3959,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3998,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4037,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4076,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4115,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4193,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4622,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4739,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4934,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5285,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5324,14 +4666,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5363,14 +4699,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5402,14 +4732,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5441,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +4798,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +4831,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5558,14 +4864,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5597,14 +4897,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5636,14 +4930,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5675,14 +4963,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5714,14 +4996,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5753,14 +5029,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5792,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5831,14 +5095,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5870,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +5161,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +5194,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +5227,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5260,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6065,14 +5293,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6104,14 +5326,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +5359,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6182,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6221,14 +5425,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6260,14 +5458,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6299,14 +5491,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6335,19 +5521,13 @@
         <v>2474082.597224349</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>1.022210884353742</v>
+        <v>1</v>
       </c>
       <c r="M154" t="inlineStr"/>
     </row>
@@ -6539,7 +5719,7 @@
         <v>2353851.927224349</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6605,7 +5785,7 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6638,7 +5818,7 @@
         <v>2347572.594424349</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6671,7 +5851,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6704,7 +5884,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6737,7 +5917,7 @@
         <v>2310185.045924349</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6770,7 +5950,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6803,7 +5983,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6836,7 +6016,7 @@
         <v>2310954.975924349</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6869,7 +6049,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6902,7 +6082,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6935,7 +6115,7 @@
         <v>2281254.029624349</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6968,7 +6148,7 @@
         <v>2381054.029624349</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7001,7 +6181,7 @@
         <v>2380054.029624349</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7034,7 +6214,7 @@
         <v>2386832.686624349</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7067,7 +6247,7 @@
         <v>2349832.686624349</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7100,7 +6280,7 @@
         <v>2352092.238924349</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7133,7 +6313,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7364,7 +6544,7 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7397,7 +6577,7 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7430,7 +6610,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7463,7 +6643,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7496,7 +6676,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7529,7 +6709,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7562,7 +6742,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7595,7 +6775,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7606,6 +6786,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -640,11 +640,9 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>14.4</v>
       </c>
@@ -1446,7 +1444,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1479,7 +1477,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1512,7 +1510,7 @@
         <v>181130.2868295775</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1545,7 +1543,7 @@
         <v>228820.5571295775</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1578,7 +1576,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1611,7 +1609,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1644,7 +1642,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1677,7 +1675,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1710,7 +1708,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1743,7 +1741,7 @@
         <v>203940.5571295775</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1776,7 +1774,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1809,7 +1807,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1842,7 +1840,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1875,7 +1873,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1908,7 +1906,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1941,7 +1939,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1974,7 +1972,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2073,7 +2071,7 @@
         <v>289429.6335295776</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2106,7 +2104,7 @@
         <v>290839.0397295776</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2139,7 +2137,7 @@
         <v>288050.0697295776</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2172,7 +2170,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2205,7 +2203,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2238,7 +2236,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2271,7 +2269,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2370,14 +2368,10 @@
         <v>292633.3171295776</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>14.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2410,14 +2404,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2437,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -5719,7 +5701,7 @@
         <v>2353851.927224349</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5752,7 +5734,7 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5818,7 +5800,7 @@
         <v>2347572.594424349</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5884,7 +5866,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5917,7 +5899,7 @@
         <v>2310185.045924349</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5950,7 +5932,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6049,7 +6031,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6082,7 +6064,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6115,7 +6097,7 @@
         <v>2281254.029624349</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6148,7 +6130,7 @@
         <v>2381054.029624349</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6181,7 +6163,7 @@
         <v>2380054.029624349</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6214,7 +6196,7 @@
         <v>2386832.686624349</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6247,7 +6229,7 @@
         <v>2349832.686624349</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6280,7 +6262,7 @@
         <v>2352092.238924349</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6313,7 +6295,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6346,7 +6328,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6379,7 +6361,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6412,7 +6394,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6445,7 +6427,7 @@
         <v>2447131.485724349</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6478,7 +6460,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6511,7 +6493,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6544,7 +6526,7 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6577,7 +6559,7 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6610,7 +6592,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6643,7 +6625,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest SNT.xlsx
+++ b/BackTest/2019-10-28 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5560.5911</v>
       </c>
       <c r="G2" t="n">
-        <v>2491.783529577489</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>61589</v>
       </c>
       <c r="G3" t="n">
-        <v>64080.78352957749</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>14.3</v>
       </c>
       <c r="I3" t="n">
         <v>14.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,21 @@
         <v>31600</v>
       </c>
       <c r="G4" t="n">
-        <v>64080.78352957749</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J4" t="n">
         <v>14.3</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +543,21 @@
         <v>31092.2746</v>
       </c>
       <c r="G5" t="n">
-        <v>64080.78352957749</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J5" t="n">
         <v>14.3</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +579,15 @@
         <v>99800</v>
       </c>
       <c r="G6" t="n">
-        <v>163880.7835295775</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +609,21 @@
         <v>176531.0956</v>
       </c>
       <c r="G7" t="n">
-        <v>163880.7835295775</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +645,19 @@
         <v>70083.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>233963.9230295775</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,18 +679,19 @@
         <v>67181.4042</v>
       </c>
       <c r="G9" t="n">
-        <v>166782.5188295775</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,18 +713,19 @@
         <v>161153.594</v>
       </c>
       <c r="G10" t="n">
-        <v>166782.5188295775</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -781,18 +747,19 @@
         <v>15233.614</v>
       </c>
       <c r="G11" t="n">
-        <v>166782.5188295775</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -814,18 +781,21 @@
         <v>22600</v>
       </c>
       <c r="G12" t="n">
-        <v>189382.5188295775</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,18 +817,19 @@
         <v>30107.1187</v>
       </c>
       <c r="G13" t="n">
-        <v>189382.5188295775</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -880,18 +851,19 @@
         <v>8146.3</v>
       </c>
       <c r="G14" t="n">
-        <v>181236.2188295775</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -913,18 +885,21 @@
         <v>55800</v>
       </c>
       <c r="G15" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -946,18 +921,21 @@
         <v>5189.1986</v>
       </c>
       <c r="G16" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,18 +957,19 @@
         <v>2425</v>
       </c>
       <c r="G17" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1012,18 +991,19 @@
         <v>24156.763</v>
       </c>
       <c r="G18" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1045,18 +1025,21 @@
         <v>10000</v>
       </c>
       <c r="G19" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,18 +1061,19 @@
         <v>43657.0799</v>
       </c>
       <c r="G20" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1111,18 +1095,21 @@
         <v>8315.874599999999</v>
       </c>
       <c r="G21" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1144,18 +1131,21 @@
         <v>8957.351699999999</v>
       </c>
       <c r="G22" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1177,18 +1167,21 @@
         <v>22279.4184</v>
       </c>
       <c r="G23" t="n">
-        <v>237036.2188295775</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1210,18 +1203,19 @@
         <v>34321.2088</v>
       </c>
       <c r="G24" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1243,18 +1237,19 @@
         <v>3039.5561</v>
       </c>
       <c r="G25" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1276,18 +1271,19 @@
         <v>11261.5553</v>
       </c>
       <c r="G26" t="n">
-        <v>237036.2188295775</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1309,18 +1305,21 @@
         <v>19814.1817</v>
       </c>
       <c r="G27" t="n">
-        <v>256850.4005295775</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1342,18 +1341,21 @@
         <v>17000</v>
       </c>
       <c r="G28" t="n">
-        <v>256850.4005295775</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1375,18 +1377,19 @@
         <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>256850.4005295775</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1408,18 +1411,19 @@
         <v>6530.74</v>
       </c>
       <c r="G30" t="n">
-        <v>250319.6605295775</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1441,18 +1445,21 @@
         <v>9975</v>
       </c>
       <c r="G31" t="n">
-        <v>250319.6605295775</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1474,18 +1481,21 @@
         <v>24000</v>
       </c>
       <c r="G32" t="n">
-        <v>250319.6605295775</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1507,18 +1517,21 @@
         <v>69189.3737</v>
       </c>
       <c r="G33" t="n">
-        <v>181130.2868295775</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1540,18 +1553,21 @@
         <v>47690.2703</v>
       </c>
       <c r="G34" t="n">
-        <v>228820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1573,18 +1589,21 @@
         <v>24000</v>
       </c>
       <c r="G35" t="n">
-        <v>204820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1606,18 +1625,21 @@
         <v>4211.2904</v>
       </c>
       <c r="G36" t="n">
-        <v>204820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1639,18 +1661,21 @@
         <v>5953.6523</v>
       </c>
       <c r="G37" t="n">
-        <v>204820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1672,18 +1697,21 @@
         <v>1040.1304</v>
       </c>
       <c r="G38" t="n">
-        <v>204820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1705,18 +1733,21 @@
         <v>1652.8751</v>
       </c>
       <c r="G39" t="n">
-        <v>204820.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1738,18 +1769,21 @@
         <v>880</v>
       </c>
       <c r="G40" t="n">
-        <v>203940.5571295775</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1771,18 +1805,21 @@
         <v>77996.7684</v>
       </c>
       <c r="G41" t="n">
-        <v>281937.3255295776</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1804,18 +1841,21 @@
         <v>5769.23</v>
       </c>
       <c r="G42" t="n">
-        <v>281937.3255295776</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1837,18 +1877,21 @@
         <v>2307.692</v>
       </c>
       <c r="G43" t="n">
-        <v>279629.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1870,18 +1913,21 @@
         <v>1787.6796</v>
       </c>
       <c r="G44" t="n">
-        <v>279629.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1903,18 +1949,21 @@
         <v>24851.7788</v>
       </c>
       <c r="G45" t="n">
-        <v>279629.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1936,18 +1985,21 @@
         <v>12800</v>
       </c>
       <c r="G46" t="n">
-        <v>292429.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1969,18 +2021,21 @@
         <v>15653.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>292429.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2002,18 +2057,21 @@
         <v>20000</v>
       </c>
       <c r="G48" t="n">
-        <v>292429.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2035,18 +2093,19 @@
         <v>14063.6125</v>
       </c>
       <c r="G49" t="n">
-        <v>292429.6335295776</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2068,18 +2127,21 @@
         <v>3000</v>
       </c>
       <c r="G50" t="n">
-        <v>289429.6335295776</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2101,18 +2163,21 @@
         <v>1409.4062</v>
       </c>
       <c r="G51" t="n">
-        <v>290839.0397295776</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2134,18 +2199,21 @@
         <v>2788.97</v>
       </c>
       <c r="G52" t="n">
-        <v>288050.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2167,18 +2235,21 @@
         <v>8600</v>
       </c>
       <c r="G53" t="n">
-        <v>296650.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2200,18 +2271,21 @@
         <v>64960</v>
       </c>
       <c r="G54" t="n">
-        <v>296650.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2233,18 +2307,21 @@
         <v>47120.5985</v>
       </c>
       <c r="G55" t="n">
-        <v>296650.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2266,18 +2343,21 @@
         <v>11609.2957</v>
       </c>
       <c r="G56" t="n">
-        <v>296650.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2299,18 +2379,21 @@
         <v>11956.178</v>
       </c>
       <c r="G57" t="n">
-        <v>296650.0697295776</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2332,18 +2415,21 @@
         <v>6575.3424</v>
       </c>
       <c r="G58" t="n">
-        <v>290074.7273295776</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2365,18 +2451,21 @@
         <v>2558.5898</v>
       </c>
       <c r="G59" t="n">
-        <v>292633.3171295776</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2398,18 +2487,21 @@
         <v>19200</v>
       </c>
       <c r="G60" t="n">
-        <v>311833.3171295776</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2431,18 +2523,19 @@
         <v>48827.3729</v>
       </c>
       <c r="G61" t="n">
-        <v>311833.3171295776</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2464,18 +2557,19 @@
         <v>24000</v>
       </c>
       <c r="G62" t="n">
-        <v>311833.3171295776</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2497,18 +2591,19 @@
         <v>114125.3614</v>
       </c>
       <c r="G63" t="n">
-        <v>425958.6785295776</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2530,18 +2625,19 @@
         <v>10000</v>
       </c>
       <c r="G64" t="n">
-        <v>425958.6785295776</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2563,18 +2659,19 @@
         <v>95105.17359999999</v>
       </c>
       <c r="G65" t="n">
-        <v>521063.8521295776</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2596,18 +2693,19 @@
         <v>20800</v>
       </c>
       <c r="G66" t="n">
-        <v>521063.8521295776</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2629,18 +2727,19 @@
         <v>20600</v>
       </c>
       <c r="G67" t="n">
-        <v>521063.8521295776</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2662,18 +2761,19 @@
         <v>162800</v>
       </c>
       <c r="G68" t="n">
-        <v>521063.8521295776</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2695,18 +2795,19 @@
         <v>1000</v>
       </c>
       <c r="G69" t="n">
-        <v>520063.8521295776</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2728,18 +2829,19 @@
         <v>135133.2078</v>
       </c>
       <c r="G70" t="n">
-        <v>520063.8521295776</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2761,18 +2863,19 @@
         <v>16737.091</v>
       </c>
       <c r="G71" t="n">
-        <v>520063.8521295776</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2794,18 +2897,19 @@
         <v>101800</v>
       </c>
       <c r="G72" t="n">
-        <v>520063.8521295776</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2827,18 +2931,19 @@
         <v>16603.65</v>
       </c>
       <c r="G73" t="n">
-        <v>520063.8521295776</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2860,18 +2965,19 @@
         <v>34163.4526</v>
       </c>
       <c r="G74" t="n">
-        <v>485900.3995295776</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2893,18 +2999,19 @@
         <v>4297.12</v>
       </c>
       <c r="G75" t="n">
-        <v>490197.5195295776</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2926,18 +3033,19 @@
         <v>79800</v>
       </c>
       <c r="G76" t="n">
-        <v>490197.5195295776</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2959,18 +3067,19 @@
         <v>13844.9054</v>
       </c>
       <c r="G77" t="n">
-        <v>476352.6141295776</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2992,18 +3101,19 @@
         <v>6357.9721</v>
       </c>
       <c r="G78" t="n">
-        <v>476352.6141295776</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3025,18 +3135,19 @@
         <v>42000</v>
       </c>
       <c r="G79" t="n">
-        <v>476352.6141295776</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3058,18 +3169,19 @@
         <v>63000</v>
       </c>
       <c r="G80" t="n">
-        <v>476352.6141295776</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3091,18 +3203,19 @@
         <v>3378</v>
       </c>
       <c r="G81" t="n">
-        <v>472974.6141295776</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3124,18 +3237,19 @@
         <v>3622</v>
       </c>
       <c r="G82" t="n">
-        <v>472974.6141295776</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3157,18 +3271,19 @@
         <v>96020</v>
       </c>
       <c r="G83" t="n">
-        <v>568994.6141295775</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3190,18 +3305,19 @@
         <v>45400</v>
       </c>
       <c r="G84" t="n">
-        <v>568994.6141295775</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3223,18 +3339,19 @@
         <v>7206</v>
       </c>
       <c r="G85" t="n">
-        <v>568994.6141295775</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3256,18 +3373,19 @@
         <v>69467</v>
       </c>
       <c r="G86" t="n">
-        <v>499527.6141295775</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3289,18 +3407,19 @@
         <v>70600</v>
       </c>
       <c r="G87" t="n">
-        <v>570127.6141295775</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3322,18 +3441,19 @@
         <v>399870.022</v>
       </c>
       <c r="G88" t="n">
-        <v>570127.6141295775</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3355,18 +3475,19 @@
         <v>815809.0134000001</v>
       </c>
       <c r="G89" t="n">
-        <v>570127.6141295775</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3388,18 +3509,19 @@
         <v>117638.3783</v>
       </c>
       <c r="G90" t="n">
-        <v>570127.6141295775</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3421,18 +3543,19 @@
         <v>37.6056</v>
       </c>
       <c r="G91" t="n">
-        <v>570090.0085295775</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3454,18 +3577,21 @@
         <v>20600</v>
       </c>
       <c r="G92" t="n">
-        <v>590690.0085295775</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3487,18 +3613,19 @@
         <v>13854.4594</v>
       </c>
       <c r="G93" t="n">
-        <v>590690.0085295775</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3520,18 +3647,21 @@
         <v>61780.6958</v>
       </c>
       <c r="G94" t="n">
-        <v>590690.0085295775</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3553,18 +3683,19 @@
         <v>4200</v>
       </c>
       <c r="G95" t="n">
-        <v>590690.0085295775</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3586,18 +3717,19 @@
         <v>9000</v>
       </c>
       <c r="G96" t="n">
-        <v>590690.0085295775</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3619,18 +3751,19 @@
         <v>30895.3944</v>
       </c>
       <c r="G97" t="n">
-        <v>559794.6141295775</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3652,18 +3785,19 @@
         <v>6559.957</v>
       </c>
       <c r="G98" t="n">
-        <v>559794.6141295775</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3685,18 +3819,19 @@
         <v>2710</v>
       </c>
       <c r="G99" t="n">
-        <v>562504.6141295775</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3718,18 +3853,19 @@
         <v>2270.321</v>
       </c>
       <c r="G100" t="n">
-        <v>562504.6141295775</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3751,18 +3887,19 @@
         <v>16000</v>
       </c>
       <c r="G101" t="n">
-        <v>546504.6141295775</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3784,18 +3921,19 @@
         <v>3841.8351</v>
       </c>
       <c r="G102" t="n">
-        <v>542662.7790295775</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3817,18 +3955,19 @@
         <v>2400</v>
       </c>
       <c r="G103" t="n">
-        <v>545062.7790295775</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3850,18 +3989,19 @@
         <v>1.8351</v>
       </c>
       <c r="G104" t="n">
-        <v>545062.7790295775</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3883,18 +4023,19 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>545162.7790295775</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3916,18 +4057,21 @@
         <v>53742</v>
       </c>
       <c r="G106" t="n">
-        <v>545162.7790295775</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3949,18 +4093,19 @@
         <v>20000</v>
       </c>
       <c r="G107" t="n">
-        <v>525162.7790295775</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3982,18 +4127,19 @@
         <v>47634.18</v>
       </c>
       <c r="G108" t="n">
-        <v>572796.9590295776</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4015,18 +4161,19 @@
         <v>163</v>
       </c>
       <c r="G109" t="n">
-        <v>572633.9590295776</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4048,18 +4195,19 @@
         <v>1640.8027</v>
       </c>
       <c r="G110" t="n">
-        <v>572633.9590295776</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4081,18 +4229,21 @@
         <v>106797.0855</v>
       </c>
       <c r="G111" t="n">
-        <v>679431.0445295776</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4114,18 +4265,21 @@
         <v>51043.9786</v>
       </c>
       <c r="G112" t="n">
-        <v>679431.0445295776</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4147,18 +4301,19 @@
         <v>100753.846</v>
       </c>
       <c r="G113" t="n">
-        <v>679431.0445295776</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4180,18 +4335,19 @@
         <v>128507.708</v>
       </c>
       <c r="G114" t="n">
-        <v>679431.0445295776</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4213,18 +4369,19 @@
         <v>202067.2269</v>
       </c>
       <c r="G115" t="n">
-        <v>881498.2714295776</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4246,18 +4403,19 @@
         <v>353.1757</v>
       </c>
       <c r="G116" t="n">
-        <v>881498.2714295776</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4279,18 +4437,19 @@
         <v>6596.1744</v>
       </c>
       <c r="G117" t="n">
-        <v>881498.2714295776</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4312,18 +4471,19 @@
         <v>63000</v>
       </c>
       <c r="G118" t="n">
-        <v>818498.2714295776</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4345,18 +4505,19 @@
         <v>12600</v>
       </c>
       <c r="G119" t="n">
-        <v>818498.2714295776</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4378,18 +4539,19 @@
         <v>3952.8398</v>
       </c>
       <c r="G120" t="n">
-        <v>814545.4316295777</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4411,18 +4573,19 @@
         <v>5400</v>
       </c>
       <c r="G121" t="n">
-        <v>819945.4316295777</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4444,18 +4607,21 @@
         <v>12600</v>
       </c>
       <c r="G122" t="n">
-        <v>819945.4316295777</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4477,18 +4643,19 @@
         <v>3827.9515</v>
       </c>
       <c r="G123" t="n">
-        <v>816117.4801295777</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4510,18 +4677,21 @@
         <v>100</v>
       </c>
       <c r="G124" t="n">
-        <v>816217.4801295777</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4543,18 +4713,19 @@
         <v>89000</v>
       </c>
       <c r="G125" t="n">
-        <v>905217.4801295777</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4576,18 +4747,19 @@
         <v>2338.8318</v>
       </c>
       <c r="G126" t="n">
-        <v>902878.6483295776</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4609,18 +4781,19 @@
         <v>56617.4518</v>
       </c>
       <c r="G127" t="n">
-        <v>902878.6483295776</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4642,18 +4815,21 @@
         <v>125292.8271</v>
       </c>
       <c r="G128" t="n">
-        <v>902878.6483295776</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4675,18 +4851,19 @@
         <v>13191529.7748</v>
       </c>
       <c r="G129" t="n">
-        <v>902878.6483295776</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4708,18 +4885,21 @@
         <v>9217158.624600001</v>
       </c>
       <c r="G130" t="n">
-        <v>902878.6483295776</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4741,18 +4921,19 @@
         <v>2785.85</v>
       </c>
       <c r="G131" t="n">
-        <v>902878.6483295776</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4774,18 +4955,19 @@
         <v>9557.663200000001</v>
       </c>
       <c r="G132" t="n">
-        <v>912436.3115295776</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4807,18 +4989,19 @@
         <v>21</v>
       </c>
       <c r="G133" t="n">
-        <v>912415.3115295776</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4840,18 +5023,19 @@
         <v>79</v>
       </c>
       <c r="G134" t="n">
-        <v>912415.3115295776</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4873,18 +5057,19 @@
         <v>14600.95</v>
       </c>
       <c r="G135" t="n">
-        <v>927016.2615295775</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4906,18 +5091,19 @@
         <v>7110.9831</v>
       </c>
       <c r="G136" t="n">
-        <v>927016.2615295775</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4939,18 +5125,19 @@
         <v>2751</v>
       </c>
       <c r="G137" t="n">
-        <v>924265.2615295775</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4972,18 +5159,19 @@
         <v>100425</v>
       </c>
       <c r="G138" t="n">
-        <v>1024690.261529578</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5005,18 +5193,19 @@
         <v>3106.636</v>
       </c>
       <c r="G139" t="n">
-        <v>1027796.897529578</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5038,18 +5227,19 @@
         <v>69356.9427</v>
       </c>
       <c r="G140" t="n">
-        <v>1027796.897529578</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5071,18 +5261,19 @@
         <v>230295.2844</v>
       </c>
       <c r="G141" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5104,18 +5295,19 @@
         <v>3509.933774834437</v>
       </c>
       <c r="G142" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5137,18 +5329,19 @@
         <v>273840.6413251656</v>
       </c>
       <c r="G143" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5170,18 +5363,19 @@
         <v>1145530.5228</v>
       </c>
       <c r="G144" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5203,18 +5397,19 @@
         <v>29070.7798</v>
       </c>
       <c r="G145" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5236,18 +5431,19 @@
         <v>57890.8933</v>
       </c>
       <c r="G146" t="n">
-        <v>1258092.181929578</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5269,18 +5465,19 @@
         <v>2890.579</v>
       </c>
       <c r="G147" t="n">
-        <v>1260982.760929578</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5302,18 +5499,19 @@
         <v>1238542.766294771</v>
       </c>
       <c r="G148" t="n">
-        <v>2499525.527224349</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5335,18 +5533,19 @@
         <v>6157.07</v>
       </c>
       <c r="G149" t="n">
-        <v>2505682.597224349</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5368,18 +5567,19 @@
         <v>1960</v>
       </c>
       <c r="G150" t="n">
-        <v>2505682.597224349</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5401,18 +5601,17 @@
         <v>31600</v>
       </c>
       <c r="G151" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5434,18 +5633,15 @@
         <v>9698</v>
       </c>
       <c r="G152" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5467,18 +5663,15 @@
         <v>40159.0433</v>
       </c>
       <c r="G153" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5500,18 +5693,15 @@
         <v>5268.38</v>
       </c>
       <c r="G154" t="n">
-        <v>2474082.597224349</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5533,18 +5723,15 @@
         <v>121600</v>
       </c>
       <c r="G155" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5566,18 +5753,15 @@
         <v>9109.6939</v>
       </c>
       <c r="G156" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5599,18 +5783,15 @@
         <v>118250.9342</v>
       </c>
       <c r="G157" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5632,18 +5813,15 @@
         <v>169875</v>
       </c>
       <c r="G158" t="n">
-        <v>2352482.597224349</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5665,18 +5843,15 @@
         <v>3290</v>
       </c>
       <c r="G159" t="n">
-        <v>2355772.597224349</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5698,18 +5873,15 @@
         <v>1920.67</v>
       </c>
       <c r="G160" t="n">
-        <v>2353851.927224349</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5731,18 +5903,15 @@
         <v>1920.6672</v>
       </c>
       <c r="G161" t="n">
-        <v>2355772.594424349</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5764,18 +5933,15 @@
         <v>45211.6651</v>
       </c>
       <c r="G162" t="n">
-        <v>2355772.594424349</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5797,18 +5963,15 @@
         <v>8200</v>
       </c>
       <c r="G163" t="n">
-        <v>2347572.594424349</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5830,18 +5993,15 @@
         <v>1812.4515</v>
       </c>
       <c r="G164" t="n">
-        <v>2349385.045924349</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5863,18 +6023,15 @@
         <v>62154.9102</v>
       </c>
       <c r="G165" t="n">
-        <v>2349385.045924349</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5896,18 +6053,15 @@
         <v>39200</v>
       </c>
       <c r="G166" t="n">
-        <v>2310185.045924349</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5929,18 +6083,15 @@
         <v>700</v>
       </c>
       <c r="G167" t="n">
-        <v>2310885.045924349</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5962,18 +6113,15 @@
         <v>1000</v>
       </c>
       <c r="G168" t="n">
-        <v>2310885.045924349</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5995,18 +6143,15 @@
         <v>69.93000000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>2310954.975924349</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6028,18 +6173,15 @@
         <v>50000</v>
       </c>
       <c r="G170" t="n">
-        <v>2260954.975924349</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6061,18 +6203,15 @@
         <v>1000</v>
       </c>
       <c r="G171" t="n">
-        <v>2260954.975924349</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6094,18 +6233,15 @@
         <v>20299.0537</v>
       </c>
       <c r="G172" t="n">
-        <v>2281254.029624349</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6127,18 +6263,15 @@
         <v>99800</v>
       </c>
       <c r="G173" t="n">
-        <v>2381054.029624349</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6160,18 +6293,15 @@
         <v>1000</v>
       </c>
       <c r="G174" t="n">
-        <v>2380054.029624349</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6193,18 +6323,15 @@
         <v>6778.657</v>
       </c>
       <c r="G175" t="n">
-        <v>2386832.686624349</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6226,18 +6353,15 @@
         <v>37000</v>
       </c>
       <c r="G176" t="n">
-        <v>2349832.686624349</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6259,18 +6383,15 @@
         <v>2259.5523</v>
       </c>
       <c r="G177" t="n">
-        <v>2352092.238924349</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6292,18 +6413,15 @@
         <v>66200</v>
       </c>
       <c r="G178" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6325,18 +6443,15 @@
         <v>24993.49</v>
       </c>
       <c r="G179" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6358,18 +6473,15 @@
         <v>16559.2865</v>
       </c>
       <c r="G180" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6391,18 +6503,15 @@
         <v>59842.2491</v>
       </c>
       <c r="G181" t="n">
-        <v>2285892.238924349</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6424,18 +6533,15 @@
         <v>161239.2468</v>
       </c>
       <c r="G182" t="n">
-        <v>2447131.485724349</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6457,18 +6563,15 @@
         <v>12200</v>
       </c>
       <c r="G183" t="n">
-        <v>2434931.485724349</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6490,18 +6593,15 @@
         <v>20400</v>
       </c>
       <c r="G184" t="n">
-        <v>2434931.485724349</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6523,18 +6623,15 @@
         <v>99959.1393</v>
       </c>
       <c r="G185" t="n">
-        <v>2334972.346424349</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6556,18 +6653,15 @@
         <v>31750</v>
       </c>
       <c r="G186" t="n">
-        <v>2366722.346424349</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6589,18 +6683,15 @@
         <v>36398.0169</v>
       </c>
       <c r="G187" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6622,18 +6713,15 @@
         <v>59600</v>
       </c>
       <c r="G188" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6655,18 +6743,15 @@
         <v>43854.0622</v>
       </c>
       <c r="G189" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6688,18 +6773,15 @@
         <v>2030</v>
       </c>
       <c r="G190" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6721,18 +6803,15 @@
         <v>2030</v>
       </c>
       <c r="G191" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6754,18 +6833,15 @@
         <v>128.2781</v>
       </c>
       <c r="G192" t="n">
-        <v>2330324.329524349</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
